--- a/tests/regression_data/performance_analysis_evaluate_cascade_critical_win.xlsx
+++ b/tests/regression_data/performance_analysis_evaluate_cascade_critical_win.xlsx
@@ -695,7 +695,7 @@
         <v>2.300000000015352</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740246987333656</v>
+        <v>2.740246987333657</v>
       </c>
       <c r="E2" t="n">
         <v>92.55823415941235</v>
@@ -710,16 +710,16 @@
         <v>-78.23303062759511</v>
       </c>
       <c r="I2" t="n">
-        <v>136184.1925565553</v>
+        <v>136184.1925565554</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70263832609423</v>
+        <v>83.70263832609427</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35331184610825</v>
+        <v>-24.35331184610822</v>
       </c>
       <c r="M2" t="n">
         <v>135.2439391354384</v>
@@ -743,7 +743,7 @@
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7159934128347342</v>
+        <v>0.7159934128347343</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.06952311572781</v>
+        <v>2.06952311568814</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000021857</v>
+        <v>2.39999999975648</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742649139994791</v>
+        <v>2.742649141238757</v>
       </c>
       <c r="E3" t="n">
-        <v>92.5301377510022</v>
+        <v>92.53013773410484</v>
       </c>
       <c r="F3" t="n">
-        <v>78.2047273218033</v>
+        <v>78.20472731943518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548188598589191</v>
+        <v>0.1548188597301697</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35954618166222</v>
+        <v>-77.35954617916535</v>
       </c>
       <c r="I3" t="n">
-        <v>140842.5888473964</v>
+        <v>140842.5889070126</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56581982015759</v>
+        <v>86.56581985679941</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84261426585801</v>
+        <v>-26.84261417516259</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5910609355053</v>
+        <v>142.5910608762149</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370431.6762671459</v>
+        <v>370431.6762687009</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036644337956068</v>
+        <v>0.7036644339551851</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3481,121 +3481,121 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>268.700094887286</v>
+        <v>268.7000948872861</v>
       </c>
       <c r="DO2" t="n">
-        <v>110.6125396683755</v>
+        <v>110.6125396683756</v>
       </c>
       <c r="DP2" t="n">
-        <v>244.8767180859555</v>
+        <v>244.8767180859556</v>
       </c>
       <c r="DQ2" t="n">
         <v>65.69097053155019</v>
       </c>
       <c r="DR2" t="n">
-        <v>268.700094887286</v>
+        <v>268.7000948872861</v>
       </c>
       <c r="DS2" t="n">
-        <v>110.6125396683755</v>
+        <v>110.6125396683756</v>
       </c>
       <c r="DT2" t="n">
-        <v>244.8767180859555</v>
+        <v>244.8767180859556</v>
       </c>
       <c r="DU2" t="n">
         <v>65.69097053155019</v>
       </c>
       <c r="DV2" t="n">
-        <v>259.5768825432814</v>
+        <v>259.5768825430813</v>
       </c>
       <c r="DW2" t="n">
-        <v>85923.81096172887</v>
+        <v>85923.81095718697</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.153944446784584</v>
+        <v>1.153944446724439</v>
       </c>
       <c r="DY2" t="n">
-        <v>311223.6008805245</v>
+        <v>311223.6008803921</v>
       </c>
       <c r="DZ2" t="n">
-        <v>385684.5605923649</v>
+        <v>385684.5605921775</v>
       </c>
       <c r="EA2" t="n">
-        <v>3788.609748082334</v>
+        <v>3788.609748096774</v>
       </c>
       <c r="EB2" t="n">
-        <v>-597750.9469879341</v>
+        <v>-597750.9469911115</v>
       </c>
       <c r="EC2" t="n">
-        <v>716.5374573909594</v>
+        <v>716.5374573909389</v>
       </c>
       <c r="ED2" t="n">
-        <v>1005.204882829564</v>
+        <v>1005.204882829461</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.402864389657582</v>
+        <v>1.402864389657478</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.9993241596289447</v>
+        <v>0.9993241596289776</v>
       </c>
       <c r="EG2" t="n">
-        <v>323.0917881094592</v>
+        <v>323.0917881093333</v>
       </c>
       <c r="EH2" t="n">
-        <v>120458.3031835942</v>
+        <v>120458.3031772219</v>
       </c>
       <c r="EI2" t="n">
-        <v>8.301627812869561e-06</v>
+        <v>8.301627813308724e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>85865.96400311816</v>
+        <v>85865.96399858217</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.164605803486566e-05</v>
+        <v>1.164605803548088e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.003865875014554279</v>
+        <v>0.003865875014556579</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.652911398829618e-05</v>
+        <v>1.652911398828524e-05</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.02330775431855142</v>
+        <v>0.02330775431853418</v>
       </c>
       <c r="EO2" t="n">
-        <v>85923.81096172887</v>
+        <v>85923.81095718697</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.153944446784584</v>
+        <v>1.153944446724439</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.153944446784584</v>
+        <v>1.153944446724439</v>
       </c>
       <c r="ER2" t="n">
-        <v>311223.6008805245</v>
+        <v>311223.6008803921</v>
       </c>
       <c r="ES2" t="n">
-        <v>385684.5605923649</v>
+        <v>385684.5605921775</v>
       </c>
       <c r="ET2" t="n">
-        <v>3788.609748082334</v>
+        <v>3788.609748096774</v>
       </c>
       <c r="EU2" t="n">
-        <v>716.5374573909594</v>
+        <v>716.5374573909389</v>
       </c>
       <c r="EV2" t="n">
-        <v>1005.204882829564</v>
+        <v>1005.204882829461</v>
       </c>
       <c r="EW2" t="n">
-        <v>323.0917881094592</v>
+        <v>323.0917881093333</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.9993241596289447</v>
+        <v>0.9993241596289776</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.652911398829618e-05</v>
+        <v>1.652911398828524e-05</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.02330775431855142</v>
+        <v>0.02330775431853418</v>
       </c>
       <c r="FA2" t="n">
         <v>295.5937144862175</v>
@@ -3784,25 +3784,25 @@
         <v>0.02606729613575431</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.8316525048796781</v>
+        <v>0.8316525048800025</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.8316525048796781</v>
+        <v>0.8316525048800025</v>
       </c>
       <c r="HM2" t="n">
-        <v>490728.0537786983</v>
+        <v>490728.0537534459</v>
       </c>
       <c r="HN2" t="n">
-        <v>2.740246987567563</v>
+        <v>2.740246987424739</v>
       </c>
       <c r="HO2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.01593440613484768</v>
+        <v>0.01593440613484796</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-1.788006365304419e-07</v>
+        <v>-1.788006365303468e-07</v>
       </c>
       <c r="HR2" t="n">
         <v>0.01379068410719914</v>
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.05491640118951788</v>
+        <v>0.05491640118951817</v>
       </c>
       <c r="HV2" t="n">
-        <v>-1.652001452301377e-11</v>
+        <v>-2.157294481941463e-11</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -3826,319 +3826,319 @@
         <v>165.3032</v>
       </c>
       <c r="HY2" t="n">
-        <v>268.700094887286</v>
+        <v>268.7000948872861</v>
       </c>
       <c r="HZ2" t="n">
-        <v>110.6125396683755</v>
+        <v>110.6125396683756</v>
       </c>
       <c r="IA2" t="n">
-        <v>244.8767180859555</v>
+        <v>244.8767180859556</v>
       </c>
       <c r="IB2" t="n">
         <v>65.69097053155019</v>
       </c>
       <c r="IC2" t="n">
-        <v>136.2610682200306</v>
+        <v>136.2610682200307</v>
       </c>
       <c r="ID2" t="n">
-        <v>110.6125396683755</v>
+        <v>110.6125396683756</v>
       </c>
       <c r="IE2" t="n">
-        <v>79.57351808595553</v>
+        <v>79.57351808595561</v>
       </c>
       <c r="IF2" t="n">
-        <v>35.73085009527956</v>
+        <v>35.73085009527958</v>
       </c>
       <c r="IG2" t="n">
-        <v>259.5768825429881</v>
+        <v>259.5768825431747</v>
       </c>
       <c r="IH2" t="n">
-        <v>85923.81096154847</v>
+        <v>85923.81095945563</v>
       </c>
       <c r="II2" t="n">
-        <v>1.153944446783468</v>
+        <v>1.15394444675451</v>
       </c>
       <c r="IJ2" t="n">
-        <v>311223.6008803145</v>
+        <v>311223.6008804535</v>
       </c>
       <c r="IK2" t="n">
-        <v>385684.5605920706</v>
+        <v>385684.5605922646</v>
       </c>
       <c r="IL2" t="n">
-        <v>3788.609748081802</v>
+        <v>3788.609748089536</v>
       </c>
       <c r="IM2" t="n">
-        <v>-597750.9469869791</v>
+        <v>-597750.9469894998</v>
       </c>
       <c r="IN2" t="n">
-        <v>716.5374573909522</v>
+        <v>716.5374573909489</v>
       </c>
       <c r="IO2" t="n">
-        <v>1005.204882829558</v>
+        <v>1005.204882829512</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.402864389657587</v>
+        <v>1.40286438965753</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.9993241596289422</v>
+        <v>0.9993241596289612</v>
       </c>
       <c r="IR2" t="n">
-        <v>323.0917881092765</v>
+        <v>323.0917881093922</v>
       </c>
       <c r="IS2" t="n">
-        <v>120458.3031833415</v>
+        <v>120458.3031804049</v>
       </c>
       <c r="IT2" t="n">
-        <v>8.30162781288698e-06</v>
+        <v>8.301627813089361e-06</v>
       </c>
       <c r="IU2" t="n">
-        <v>85865.96400293768</v>
+        <v>85865.96400084787</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.164605803489014e-05</v>
+        <v>1.164605803517358e-05</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.003865875014558663</v>
+        <v>0.003865875014555529</v>
       </c>
       <c r="IX2" t="n">
-        <v>1.652911398828115e-05</v>
+        <v>1.652911398829037e-05</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.02330775431852853</v>
+        <v>0.02330775431854228</v>
       </c>
       <c r="IZ2" t="n">
-        <v>85923.81096154847</v>
+        <v>85923.81095945563</v>
       </c>
       <c r="JA2" t="n">
-        <v>1.153944446783468</v>
+        <v>1.15394444675451</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.153944446783468</v>
+        <v>1.15394444675451</v>
       </c>
       <c r="JC2" t="n">
-        <v>311223.6008803145</v>
+        <v>311223.6008804535</v>
       </c>
       <c r="JD2" t="n">
-        <v>385684.5605920706</v>
+        <v>385684.5605922646</v>
       </c>
       <c r="JE2" t="n">
-        <v>3788.609748081802</v>
+        <v>3788.609748089536</v>
       </c>
       <c r="JF2" t="n">
-        <v>716.5374573909522</v>
+        <v>716.5374573909489</v>
       </c>
       <c r="JG2" t="n">
-        <v>1005.204882829558</v>
+        <v>1005.204882829512</v>
       </c>
       <c r="JH2" t="n">
-        <v>323.0917881092765</v>
+        <v>323.0917881093922</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.9993241596289422</v>
+        <v>0.9993241596289612</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911398828115e-05</v>
+        <v>1.652911398829037e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775431852853</v>
+        <v>0.02330775431854228</v>
       </c>
       <c r="JL2" t="n">
-        <v>295.5937144863261</v>
+        <v>295.5937144863098</v>
       </c>
       <c r="JM2" t="n">
-        <v>135289.0393173534</v>
+        <v>135289.0393103018</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.595200320527929</v>
+        <v>1.595200320444833</v>
       </c>
       <c r="JO2" t="n">
-        <v>336974.3683168248</v>
+        <v>336974.3683168274</v>
       </c>
       <c r="JP2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609748087002</v>
+        <v>3788.609748101956</v>
       </c>
       <c r="JR2" t="n">
-        <v>-698104.7970876517</v>
+        <v>-698104.79709201</v>
       </c>
       <c r="JS2" t="n">
-        <v>717.8561751867511</v>
+        <v>717.8561751867326</v>
       </c>
       <c r="JT2" t="n">
-        <v>1006.777073038441</v>
+        <v>1006.777073038325</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.402477415168194</v>
+        <v>1.402477415168069</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9995302899915404</v>
+        <v>0.9995302899915643</v>
       </c>
       <c r="JW2" t="n">
-        <v>344.8027749233801</v>
+        <v>344.8027749233633</v>
       </c>
       <c r="JX2" t="n">
-        <v>189651.6968817557</v>
+        <v>189651.696871858</v>
       </c>
       <c r="JY2" t="n">
-        <v>5.27282390003334e-06</v>
+        <v>5.272823900308523e-06</v>
       </c>
       <c r="JZ2" t="n">
-        <v>135226.2038808029</v>
+        <v>135226.2038737577</v>
       </c>
       <c r="KA2" t="n">
-        <v>7.395016433955836e-06</v>
+        <v>7.39501643434111e-06</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.003395619870061636</v>
+        <v>0.003395619870061172</v>
       </c>
       <c r="KC2" t="n">
-        <v>1.832925574426865e-05</v>
+        <v>1.832925574426684e-05</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.02606729613576364</v>
+        <v>0.02606729613576017</v>
       </c>
       <c r="KE2" t="n">
-        <v>135289.0393173534</v>
+        <v>135289.0393103018</v>
       </c>
       <c r="KF2" t="n">
-        <v>1.595200320527929</v>
+        <v>1.595200320444833</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.595200320527929</v>
+        <v>1.595200320444833</v>
       </c>
       <c r="KH2" t="n">
-        <v>336974.3683168248</v>
+        <v>336974.3683168274</v>
       </c>
       <c r="KI2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KJ2" t="n">
-        <v>3788.609748087002</v>
+        <v>3788.609748101956</v>
       </c>
       <c r="KK2" t="n">
-        <v>717.8561751867511</v>
+        <v>717.8561751867326</v>
       </c>
       <c r="KL2" t="n">
-        <v>1006.777073038441</v>
+        <v>1006.777073038325</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027749233801</v>
+        <v>344.8027749233633</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.9995302899915404</v>
+        <v>0.9995302899915643</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.832925574426865e-05</v>
+        <v>1.832925574426684e-05</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.02606729613576364</v>
+        <v>0.02606729613576017</v>
       </c>
       <c r="KQ2" t="n">
-        <v>268.8434085038717</v>
+        <v>268.8434085038575</v>
       </c>
       <c r="KR2" t="n">
-        <v>97121.33591510521</v>
+        <v>97121.33591004167</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.259312807246429</v>
+        <v>1.259312807180799</v>
       </c>
       <c r="KT2" t="n">
-        <v>317845.6127028858</v>
+        <v>317845.6127028873</v>
       </c>
       <c r="KU2" t="n">
         <v>394968.099948503</v>
       </c>
       <c r="KV2" t="n">
-        <v>3788.6097480818</v>
+        <v>3788.609748096756</v>
       </c>
       <c r="KW2" t="n">
-        <v>-623574.6582168028</v>
+        <v>-623574.6582207698</v>
       </c>
       <c r="KX2" t="n">
-        <v>716.8078693070753</v>
+        <v>716.8078693070585</v>
       </c>
       <c r="KY2" t="n">
-        <v>1005.539795486598</v>
+        <v>1005.539795486494</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.402802394536537</v>
+        <v>1.402802394536424</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9993679200723574</v>
+        <v>0.9993679200723901</v>
       </c>
       <c r="LB2" t="n">
-        <v>328.8154049620261</v>
+        <v>328.8154049620149</v>
       </c>
       <c r="LC2" t="n">
-        <v>136156.3598954355</v>
+        <v>136156.3598883303</v>
       </c>
       <c r="LD2" t="n">
-        <v>7.344497170517587e-06</v>
+        <v>7.344497170900852e-06</v>
       </c>
       <c r="LE2" t="n">
-        <v>97060.25625969883</v>
+        <v>97060.25625464164</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.030287821746889e-05</v>
+        <v>1.030287821800571e-05</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.003732878039305546</v>
+        <v>0.003732878039305054</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.700134508859138e-05</v>
+        <v>1.70013450885899e-05</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.02402857193767391</v>
+        <v>0.02402857193767102</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97121.33591510521</v>
+        <v>97121.33591004167</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259312807246429</v>
+        <v>1.259312807180799</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.259312807246429</v>
+        <v>1.259312807180799</v>
       </c>
       <c r="LM2" t="n">
-        <v>317845.6127028858</v>
+        <v>317845.6127028873</v>
       </c>
       <c r="LN2" t="n">
         <v>394968.099948503</v>
       </c>
       <c r="LO2" t="n">
-        <v>3788.6097480818</v>
+        <v>3788.609748096756</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8078693070753</v>
+        <v>716.8078693070585</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.539795486598</v>
+        <v>1005.539795486494</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8154049620261</v>
+        <v>328.8154049620149</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993679200723574</v>
+        <v>0.9993679200723901</v>
       </c>
       <c r="LT2" t="n">
-        <v>1.700134508859138e-05</v>
+        <v>1.70013450885899e-05</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.02402857193767391</v>
+        <v>0.02402857193767102</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.8316525048801483</v>
+        <v>0.831652504879851</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.421741044603536</v>
+        <v>0.4217410446033853</v>
       </c>
       <c r="LX2" t="n">
-        <v>247902.8544846222</v>
+        <v>247902.8544782629</v>
       </c>
       <c r="LY2" t="n">
-        <v>2.740246987564913</v>
+        <v>2.740246987496148</v>
       </c>
       <c r="LZ2" t="n">
         <v>381305.5259832827</v>
@@ -4150,25 +4150,25 @@
         <v>135.2439391354384</v>
       </c>
       <c r="MC2" t="n">
-        <v>123.2099309327717</v>
+        <v>123.2099309327718</v>
       </c>
       <c r="MD2" t="n">
-        <v>-55.7694897987401</v>
+        <v>-55.76948979874004</v>
       </c>
       <c r="ME2" t="n">
-        <v>-24.35331184610825</v>
+        <v>-24.35331184610822</v>
       </c>
       <c r="MF2" t="n">
         <v>253.0885640547758</v>
       </c>
       <c r="MG2" t="n">
-        <v>123.2099309327717</v>
+        <v>123.2099309327718</v>
       </c>
       <c r="MH2" t="n">
-        <v>-221.0726897987401</v>
+        <v>-221.07268979874</v>
       </c>
       <c r="MI2" t="n">
-        <v>-60.86786569761385</v>
+        <v>-60.86786569761384</v>
       </c>
       <c r="MJ2" t="n">
         <v>236.8579341688225</v>
@@ -4456,34 +4456,34 @@
         <v>0.8200880713601656</v>
       </c>
       <c r="QA2" t="n">
-        <v>379650.1692710478</v>
+        <v>379650.1692710477</v>
       </c>
       <c r="QB2" t="n">
-        <v>2.740246987333656</v>
+        <v>2.740246987333657</v>
       </c>
       <c r="QC2" t="n">
         <v>381305.5259832827</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.02447288202655256</v>
+        <v>0.02447288202512895</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.001918869764584496</v>
+        <v>0.001918869764584427</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.01189012429133729</v>
+        <v>0.01189012429133687</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.031980843139544</v>
+        <v>0.03198084313955896</v>
       </c>
       <c r="QH2" t="n">
         <v>0.04237646467669577</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.1126391838987141</v>
+        <v>0.112639183897305</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.380141279039293e-10</v>
+        <v>-1.234647106773679e-11</v>
       </c>
       <c r="QK2" t="n">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70591932814955</v>
+        <v>80.7059193438815</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70591932814955</v>
+        <v>80.7059193438815</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70591932814955</v>
+        <v>80.7059193438815</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70591932814955</v>
+        <v>80.7059193438815</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4521,97 +4521,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3528032950104</v>
+        <v>292.3528032937442</v>
       </c>
       <c r="L3" t="n">
-        <v>132773.0183094861</v>
+        <v>132773.0183074761</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582939879020846</v>
+        <v>1.582939879003753</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.2218958686</v>
+        <v>334650.2218949628</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.7083810882</v>
+        <v>418527.7083798184</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.7828576647</v>
+        <v>-687418.7828541445</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129246622042</v>
+        <v>717.7129246621469</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647680590316</v>
+        <v>1006.647680590249</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577055532475</v>
+        <v>1.402577055532494</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979670300587</v>
+        <v>0.9994979670300498</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9084201842895</v>
+        <v>342.9084201835461</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.8608779353</v>
+        <v>186131.8608751184</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372535337492793e-06</v>
+        <v>5.372535337574101e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132707.0481751693</v>
+        <v>132707.0481731592</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535394794404815e-06</v>
+        <v>7.535394794518957e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433455930477016</v>
+        <v>0.003433455930491863</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817142688352032e-05</v>
+        <v>1.817142688345835e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582433232348291</v>
+        <v>0.02582433232338747</v>
       </c>
       <c r="AD3" t="n">
-        <v>132773.0183094861</v>
+        <v>132773.0183074761</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582939879020846</v>
+        <v>1.582939879003753</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582939879020846</v>
+        <v>1.582939879003753</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.2218958686</v>
+        <v>334650.2218949628</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.7083810882</v>
+        <v>418527.7083798184</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129246622042</v>
+        <v>717.7129246621469</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647680590316</v>
+        <v>1006.647680590249</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9084201842895</v>
+        <v>342.9084201835461</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979670300587</v>
+        <v>0.9994979670300498</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817142688352032e-05</v>
+        <v>1.817142688345835e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582433232348291</v>
+        <v>0.02582433232338747</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4800,16 +4800,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2353570649702207</v>
+        <v>0.2353570650166089</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2353570649702207</v>
+        <v>0.2353570650166089</v>
       </c>
       <c r="DB3" t="n">
-        <v>183915.5787240917</v>
+        <v>183915.5787585834</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.742649140077418</v>
+        <v>2.742649140582424</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4858,343 +4858,343 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>270.1969682126864</v>
+        <v>270.1969684482786</v>
       </c>
       <c r="DO3" t="n">
-        <v>111.1593489303069</v>
+        <v>111.1593490169695</v>
       </c>
       <c r="DP3" t="n">
-        <v>246.2722086974447</v>
+        <v>246.2722089168074</v>
       </c>
       <c r="DQ3" t="n">
-        <v>65.70711543546795</v>
+        <v>65.70711543785504</v>
       </c>
       <c r="DR3" t="n">
-        <v>270.1969682126864</v>
+        <v>270.1969684482786</v>
       </c>
       <c r="DS3" t="n">
-        <v>111.1593489303069</v>
+        <v>111.1593490169695</v>
       </c>
       <c r="DT3" t="n">
-        <v>246.2722086974447</v>
+        <v>246.2722089168074</v>
       </c>
       <c r="DU3" t="n">
-        <v>65.70711543546795</v>
+        <v>65.70711543785504</v>
       </c>
       <c r="DV3" t="n">
-        <v>259.1741888890895</v>
+        <v>259.1741888257332</v>
       </c>
       <c r="DW3" t="n">
-        <v>85443.19312728467</v>
+        <v>85443.19305170931</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.149274617111075</v>
+        <v>1.149274616375769</v>
       </c>
       <c r="DY3" t="n">
-        <v>310935.9068355275</v>
+        <v>310935.9067902648</v>
       </c>
       <c r="DZ3" t="n">
-        <v>385281.2302727255</v>
+        <v>385281.2302092697</v>
       </c>
       <c r="EA3" t="n">
-        <v>3788.663779682031</v>
+        <v>3788.663779690919</v>
       </c>
       <c r="EB3" t="n">
-        <v>-596642.6317998371</v>
+        <v>-596642.6316255605</v>
       </c>
       <c r="EC3" t="n">
-        <v>716.526625152743</v>
+        <v>716.5266251510446</v>
       </c>
       <c r="ED3" t="n">
-        <v>1005.190956706249</v>
+        <v>1005.190956704062</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.402866162149901</v>
+        <v>1.402866162150174</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.9993225259978853</v>
+        <v>0.9993225259976302</v>
       </c>
       <c r="EG3" t="n">
-        <v>322.8407494538961</v>
+        <v>322.8407494143846</v>
       </c>
       <c r="EH3" t="n">
-        <v>119784.4680687147</v>
+        <v>119784.4679627564</v>
       </c>
       <c r="EI3" t="n">
-        <v>8.348327760042706e-06</v>
+        <v>8.348327767427422e-06</v>
       </c>
       <c r="EJ3" t="n">
-        <v>85385.52807143361</v>
+        <v>85385.52799588714</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.171158652510059e-05</v>
+        <v>1.171158653546264e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003871867271678081</v>
+        <v>0.003871867272622294</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.650844021955645e-05</v>
+        <v>1.65084402163028e-05</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.02327624550110643</v>
+        <v>0.02327624549614787</v>
       </c>
       <c r="EO3" t="n">
-        <v>85443.19312728467</v>
+        <v>85443.19305170931</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.149274617111075</v>
+        <v>1.149274616375769</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.149274617111075</v>
+        <v>1.149274616375769</v>
       </c>
       <c r="ER3" t="n">
-        <v>310935.9068355275</v>
+        <v>310935.9067902648</v>
       </c>
       <c r="ES3" t="n">
-        <v>385281.2302727255</v>
+        <v>385281.2302092697</v>
       </c>
       <c r="ET3" t="n">
-        <v>3788.663779682031</v>
+        <v>3788.663779690919</v>
       </c>
       <c r="EU3" t="n">
-        <v>716.526625152743</v>
+        <v>716.5266251510446</v>
       </c>
       <c r="EV3" t="n">
-        <v>1005.190956706249</v>
+        <v>1005.190956704062</v>
       </c>
       <c r="EW3" t="n">
-        <v>322.8407494538961</v>
+        <v>322.8407494143846</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.9993225259978853</v>
+        <v>0.9993225259976302</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.650844021955645e-05</v>
+        <v>1.65084402163028e-05</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02327624550110643</v>
+        <v>0.02327624549614787</v>
       </c>
       <c r="FA3" t="n">
-        <v>295.5936554165617</v>
+        <v>295.5936554165519</v>
       </c>
       <c r="FB3" t="n">
-        <v>135263.5641327809</v>
+        <v>135263.5641285918</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.594900121611386</v>
+        <v>1.594900121562022</v>
       </c>
       <c r="FD3" t="n">
-        <v>336974.3779072537</v>
+        <v>336974.3779072554</v>
       </c>
       <c r="FE3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FF3" t="n">
-        <v>3788.663779687233</v>
+        <v>3788.663779696119</v>
       </c>
       <c r="FG3" t="n">
-        <v>-698120.5446934862</v>
+        <v>-698120.5446960762</v>
       </c>
       <c r="FH3" t="n">
-        <v>717.8561088314455</v>
+        <v>717.8561088314344</v>
       </c>
       <c r="FI3" t="n">
-        <v>1006.776654763179</v>
+        <v>1006.77665476311</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.402476962133887</v>
+        <v>1.402476962133813</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.9995303767050319</v>
+        <v>0.9995303767050462</v>
       </c>
       <c r="FL3" t="n">
-        <v>344.8027143551546</v>
+        <v>344.8027143551446</v>
       </c>
       <c r="FM3" t="n">
-        <v>189615.939930621</v>
+        <v>189615.9399247412</v>
       </c>
       <c r="FN3" t="n">
-        <v>5.273818226283571e-06</v>
+        <v>5.273818226447107e-06</v>
       </c>
       <c r="FO3" t="n">
-        <v>135200.7519910472</v>
+        <v>135200.751986862</v>
       </c>
       <c r="FP3" t="n">
-        <v>7.396408564844508e-06</v>
+        <v>7.396408565073472e-06</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.003395618189367277</v>
+        <v>0.003395618189367001</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.832924920426968e-05</v>
+        <v>1.832924920426861e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.02606728356296041</v>
+        <v>0.02606728356295834</v>
       </c>
       <c r="FT3" t="n">
-        <v>135263.5641327809</v>
+        <v>135263.5641285918</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.594900121611386</v>
+        <v>1.594900121562022</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.594900121611386</v>
+        <v>1.594900121562022</v>
       </c>
       <c r="FW3" t="n">
-        <v>336974.3779072537</v>
+        <v>336974.3779072554</v>
       </c>
       <c r="FX3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FY3" t="n">
-        <v>3788.663779687233</v>
+        <v>3788.663779696119</v>
       </c>
       <c r="FZ3" t="n">
-        <v>717.8561088314455</v>
+        <v>717.8561088314344</v>
       </c>
       <c r="GA3" t="n">
-        <v>1006.776654763179</v>
+        <v>1006.77665476311</v>
       </c>
       <c r="GB3" t="n">
-        <v>344.8027143551546</v>
+        <v>344.8027143551446</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.9995303767050319</v>
+        <v>0.9995303767050462</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.832924920426968e-05</v>
+        <v>1.832924920426861e-05</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02606728356296041</v>
+        <v>0.02606728356295834</v>
       </c>
       <c r="GF3" t="n">
-        <v>295.5936554165617</v>
+        <v>295.5936554165519</v>
       </c>
       <c r="GG3" t="n">
-        <v>135263.5641327809</v>
+        <v>135263.5641285918</v>
       </c>
       <c r="GH3" t="n">
-        <v>1.594900121611386</v>
+        <v>1.594900121562022</v>
       </c>
       <c r="GI3" t="n">
-        <v>336974.3779072537</v>
+        <v>336974.3779072554</v>
       </c>
       <c r="GJ3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GK3" t="n">
-        <v>3788.663779687233</v>
+        <v>3788.663779696119</v>
       </c>
       <c r="GL3" t="n">
-        <v>-698120.5446934862</v>
+        <v>-698120.5446960762</v>
       </c>
       <c r="GM3" t="n">
-        <v>717.8561088314455</v>
+        <v>717.8561088314344</v>
       </c>
       <c r="GN3" t="n">
-        <v>1006.776654763179</v>
+        <v>1006.77665476311</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402476962133887</v>
+        <v>1.402476962133813</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9995303767050319</v>
+        <v>0.9995303767050462</v>
       </c>
       <c r="GQ3" t="n">
-        <v>344.8027143551546</v>
+        <v>344.8027143551446</v>
       </c>
       <c r="GR3" t="n">
-        <v>189615.939930621</v>
+        <v>189615.9399247412</v>
       </c>
       <c r="GS3" t="n">
-        <v>5.273818226283571e-06</v>
+        <v>5.273818226447107e-06</v>
       </c>
       <c r="GT3" t="n">
-        <v>135200.7519910472</v>
+        <v>135200.751986862</v>
       </c>
       <c r="GU3" t="n">
-        <v>7.396408564844508e-06</v>
+        <v>7.396408565073472e-06</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.003395618189367277</v>
+        <v>0.003395618189367001</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.832924920426968e-05</v>
+        <v>1.832924920426861e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02606728356296041</v>
+        <v>0.02606728356295834</v>
       </c>
       <c r="GY3" t="n">
-        <v>135263.5641327809</v>
+        <v>135263.5641285918</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.594900121611386</v>
+        <v>1.594900121562022</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.594900121611386</v>
+        <v>1.594900121562022</v>
       </c>
       <c r="HB3" t="n">
-        <v>336974.3779072537</v>
+        <v>336974.3779072554</v>
       </c>
       <c r="HC3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HD3" t="n">
-        <v>3788.663779687233</v>
+        <v>3788.663779696119</v>
       </c>
       <c r="HE3" t="n">
-        <v>717.8561088314455</v>
+        <v>717.8561088314344</v>
       </c>
       <c r="HF3" t="n">
-        <v>1006.776654763179</v>
+        <v>1006.77665476311</v>
       </c>
       <c r="HG3" t="n">
-        <v>344.8027143551546</v>
+        <v>344.8027143551446</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9995303767050319</v>
+        <v>0.9995303767050462</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.832924920426968e-05</v>
+        <v>1.832924920426861e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02606728356296041</v>
+        <v>0.02606728356295834</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.8369357606489894</v>
+        <v>0.8369357614811671</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.8369357606489894</v>
+        <v>0.8369357614811671</v>
       </c>
       <c r="HM3" t="n">
-        <v>492080.3068962279</v>
+        <v>492080.3071074374</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.74264914013383</v>
+        <v>2.742649140517321</v>
       </c>
       <c r="HO3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.0159510014692575</v>
+        <v>0.01595100147163165</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-1.793991198663737e-07</v>
+        <v>-1.793991196041439e-07</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.01379123038043169</v>
+        <v>0.01379123038051363</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02518399105148189</v>
+        <v>0.02518399105034646</v>
       </c>
       <c r="HT3" t="n">
         <v>0</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.05492604350205121</v>
+        <v>0.05492604350337213</v>
       </c>
       <c r="HV3" t="n">
-        <v>-4.315985069336392e-12</v>
+        <v>-2.550945565893414e-13</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -5203,664 +5203,664 @@
         <v>165.3032</v>
       </c>
       <c r="HY3" t="n">
-        <v>270.1969682126864</v>
+        <v>270.1969684482786</v>
       </c>
       <c r="HZ3" t="n">
-        <v>111.1593489303069</v>
+        <v>111.1593490169695</v>
       </c>
       <c r="IA3" t="n">
-        <v>246.2722086974447</v>
+        <v>246.2722089168074</v>
       </c>
       <c r="IB3" t="n">
-        <v>65.70711543546795</v>
+        <v>65.70711543785504</v>
       </c>
       <c r="IC3" t="n">
-        <v>137.522293552924</v>
+        <v>137.5222937521276</v>
       </c>
       <c r="ID3" t="n">
-        <v>111.1593489303069</v>
+        <v>111.1593490169695</v>
       </c>
       <c r="IE3" t="n">
-        <v>80.96900869744471</v>
+        <v>80.96900891680738</v>
       </c>
       <c r="IF3" t="n">
-        <v>36.06977625456265</v>
+        <v>36.06977630717733</v>
       </c>
       <c r="IG3" t="n">
-        <v>259.1741888891891</v>
+        <v>259.1741888256335</v>
       </c>
       <c r="IH3" t="n">
-        <v>85443.19312938662</v>
+        <v>85443.19305159412</v>
       </c>
       <c r="II3" t="n">
-        <v>1.149274617138924</v>
+        <v>1.149274616374662</v>
       </c>
       <c r="IJ3" t="n">
-        <v>310935.9068355937</v>
+        <v>310935.9067901935</v>
       </c>
       <c r="IK3" t="n">
-        <v>385281.2302728192</v>
+        <v>385281.2302091697</v>
       </c>
       <c r="IL3" t="n">
-        <v>3788.663779675335</v>
+        <v>3788.66377969092</v>
       </c>
       <c r="IM3" t="n">
-        <v>-596642.6317983854</v>
+        <v>-596642.631625283</v>
       </c>
       <c r="IN3" t="n">
-        <v>716.5266251527527</v>
+        <v>716.5266251510419</v>
       </c>
       <c r="IO3" t="n">
-        <v>1005.190956706297</v>
+        <v>1005.190956704059</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.402866162149949</v>
+        <v>1.402866162150174</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.99932252599787</v>
+        <v>0.9993225259976297</v>
       </c>
       <c r="IR3" t="n">
-        <v>322.8407494539588</v>
+        <v>322.8407494143223</v>
       </c>
       <c r="IS3" t="n">
-        <v>119784.4680716638</v>
+        <v>119784.4679625949</v>
       </c>
       <c r="IT3" t="n">
-        <v>8.348327759837172e-06</v>
+        <v>8.348327767438679e-06</v>
       </c>
       <c r="IU3" t="n">
-        <v>85385.52807353287</v>
+        <v>85385.527995772</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.171158652481265e-05</v>
+        <v>1.171158653547843e-05</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.003871867271676908</v>
+        <v>0.003871867272623781</v>
       </c>
       <c r="IX3" t="n">
-        <v>1.650844021956187e-05</v>
+        <v>1.650844021629769e-05</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.02327624550111495</v>
+        <v>0.02327624549614007</v>
       </c>
       <c r="IZ3" t="n">
-        <v>85443.19312938662</v>
+        <v>85443.19305159412</v>
       </c>
       <c r="JA3" t="n">
-        <v>1.149274617138924</v>
+        <v>1.149274616374662</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.149274617138924</v>
+        <v>1.149274616374662</v>
       </c>
       <c r="JC3" t="n">
-        <v>310935.9068355937</v>
+        <v>310935.9067901935</v>
       </c>
       <c r="JD3" t="n">
-        <v>385281.2302728192</v>
+        <v>385281.2302091697</v>
       </c>
       <c r="JE3" t="n">
-        <v>3788.663779675335</v>
+        <v>3788.66377969092</v>
       </c>
       <c r="JF3" t="n">
-        <v>716.5266251527527</v>
+        <v>716.5266251510419</v>
       </c>
       <c r="JG3" t="n">
-        <v>1005.190956706297</v>
+        <v>1005.190956704059</v>
       </c>
       <c r="JH3" t="n">
-        <v>322.8407494539588</v>
+        <v>322.8407494143223</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.99932252599787</v>
+        <v>0.9993225259976297</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650844021956187e-05</v>
+        <v>1.650844021629769e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327624550111495</v>
+        <v>0.02327624549614007</v>
       </c>
       <c r="JL3" t="n">
-        <v>295.5936554164609</v>
+        <v>295.593655416452</v>
       </c>
       <c r="JM3" t="n">
-        <v>135263.5641323603</v>
+        <v>135263.564128431</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.59490012160697</v>
+        <v>1.594900121560666</v>
       </c>
       <c r="JO3" t="n">
-        <v>336974.3779071821</v>
+        <v>336974.3779071837</v>
       </c>
       <c r="JP3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663779687786</v>
+        <v>3788.66377969612</v>
       </c>
       <c r="JR3" t="n">
-        <v>-698120.5446933686</v>
+        <v>-698120.5446957982</v>
       </c>
       <c r="JS3" t="n">
-        <v>717.85610883144</v>
+        <v>717.8561088314299</v>
       </c>
       <c r="JT3" t="n">
-        <v>1006.776654763169</v>
+        <v>1006.776654763105</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.402476962133885</v>
+        <v>1.402476962133814</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9995303767050321</v>
+        <v>0.9995303767050454</v>
       </c>
       <c r="JW3" t="n">
-        <v>344.8027143550956</v>
+        <v>344.8027143550863</v>
       </c>
       <c r="JX3" t="n">
-        <v>189615.9399300311</v>
+        <v>189615.9399245159</v>
       </c>
       <c r="JY3" t="n">
-        <v>5.273818226299979e-06</v>
+        <v>5.273818226453375e-06</v>
       </c>
       <c r="JZ3" t="n">
-        <v>135200.7519906269</v>
+        <v>135200.7519867012</v>
       </c>
       <c r="KA3" t="n">
-        <v>7.396408564867505e-06</v>
+        <v>7.396408565082269e-06</v>
       </c>
       <c r="KB3" t="n">
-        <v>0.003395618189368408</v>
+        <v>0.003395618189368146</v>
       </c>
       <c r="KC3" t="n">
-        <v>1.832924920426474e-05</v>
+        <v>1.832924920426373e-05</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.02606728356295275</v>
+        <v>0.02606728356295082</v>
       </c>
       <c r="KE3" t="n">
-        <v>135263.5641323603</v>
+        <v>135263.564128431</v>
       </c>
       <c r="KF3" t="n">
-        <v>1.59490012160697</v>
+        <v>1.594900121560666</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.59490012160697</v>
+        <v>1.594900121560666</v>
       </c>
       <c r="KH3" t="n">
-        <v>336974.3779071821</v>
+        <v>336974.3779071837</v>
       </c>
       <c r="KI3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KJ3" t="n">
-        <v>3788.663779687786</v>
+        <v>3788.66377969612</v>
       </c>
       <c r="KK3" t="n">
-        <v>717.85610883144</v>
+        <v>717.8561088314299</v>
       </c>
       <c r="KL3" t="n">
-        <v>1006.776654763169</v>
+        <v>1006.776654763105</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8027143550956</v>
+        <v>344.8027143550863</v>
       </c>
       <c r="KN3" t="n">
-        <v>0.9995303767050321</v>
+        <v>0.9995303767050454</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.832924920426474e-05</v>
+        <v>1.832924920426373e-05</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.02606728356295275</v>
+        <v>0.02606728356295082</v>
       </c>
       <c r="KQ3" t="n">
-        <v>268.6131315202097</v>
+        <v>268.6131314840118</v>
       </c>
       <c r="KR3" t="n">
-        <v>96812.91210419779</v>
+        <v>96812.91205582737</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.256391135837356</v>
+        <v>1.256391135379144</v>
       </c>
       <c r="KT3" t="n">
-        <v>317681.0732694895</v>
+        <v>317681.0732436251</v>
       </c>
       <c r="KU3" t="n">
-        <v>394737.4208850545</v>
+        <v>394737.4208487935</v>
       </c>
       <c r="KV3" t="n">
-        <v>3788.663779689216</v>
+        <v>3788.663779697551</v>
       </c>
       <c r="KW3" t="n">
-        <v>-622947.4212544595</v>
+        <v>-622947.421155818</v>
       </c>
       <c r="KX3" t="n">
-        <v>716.8005541600728</v>
+        <v>716.8005541589251</v>
       </c>
       <c r="KY3" t="n">
-        <v>1005.530554856016</v>
+        <v>1005.530554854566</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.402803819026436</v>
+        <v>1.40280381902666</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9993668746953536</v>
+        <v>0.9993668746951893</v>
       </c>
       <c r="LB3" t="n">
-        <v>328.6743722788199</v>
+        <v>328.6743722566459</v>
       </c>
       <c r="LC3" t="n">
-        <v>135723.9679687436</v>
+        <v>135723.9679009312</v>
       </c>
       <c r="LD3" t="n">
-        <v>7.367895405403219e-06</v>
+        <v>7.36789540908448e-06</v>
       </c>
       <c r="LE3" t="n">
-        <v>96751.92363172911</v>
+        <v>96751.92358337299</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.033571181288696e-05</v>
+        <v>1.03357118180527e-05</v>
       </c>
       <c r="LG3" t="n">
-        <v>0.003736069646442067</v>
+        <v>0.003736069646944202</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.69896861572536e-05</v>
+        <v>1.698968615542061e-05</v>
       </c>
       <c r="LI3" t="n">
-        <v>0.02401074691366136</v>
+        <v>0.02401074691085905</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96812.91210419779</v>
+        <v>96812.91205582737</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.256391135837356</v>
+        <v>1.256391135379144</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.256391135837356</v>
+        <v>1.256391135379144</v>
       </c>
       <c r="LM3" t="n">
-        <v>317681.0732694895</v>
+        <v>317681.0732436251</v>
       </c>
       <c r="LN3" t="n">
-        <v>394737.4208850545</v>
+        <v>394737.4208487935</v>
       </c>
       <c r="LO3" t="n">
-        <v>3788.663779689216</v>
+        <v>3788.663779697551</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8005541600728</v>
+        <v>716.8005541589251</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.530554856016</v>
+        <v>1005.530554854566</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6743722788199</v>
+        <v>328.6743722566459</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993668746953536</v>
+        <v>0.9993668746951893</v>
       </c>
       <c r="LT3" t="n">
-        <v>1.69896861572536e-05</v>
+        <v>1.698968615542061e-05</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.02401074691366136</v>
+        <v>0.02401074691085905</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.8369357606488272</v>
+        <v>0.8369357614813284</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.4259756359304835</v>
+        <v>0.425975636599816</v>
       </c>
       <c r="LX3" t="n">
-        <v>249496.9791903373</v>
+        <v>249496.9794351568</v>
       </c>
       <c r="LY3" t="n">
-        <v>2.742649140200289</v>
+        <v>2.742649140514679</v>
       </c>
       <c r="LZ3" t="n">
-        <v>381074.8469198343</v>
+        <v>381074.846883573</v>
       </c>
       <c r="MA3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MB3" t="n">
-        <v>142.5910609355053</v>
+        <v>142.5910608762149</v>
       </c>
       <c r="MC3" t="n">
-        <v>127.2269065254224</v>
+        <v>127.226906574439</v>
       </c>
       <c r="MD3" t="n">
-        <v>-64.38575086682147</v>
+        <v>-64.38575063865767</v>
       </c>
       <c r="ME3" t="n">
-        <v>-26.84261426585801</v>
+        <v>-26.84261417516259</v>
       </c>
       <c r="MF3" t="n">
-        <v>262.5713234424691</v>
+        <v>262.5713232666293</v>
       </c>
       <c r="MG3" t="n">
-        <v>127.2269065254224</v>
+        <v>127.226906574439</v>
       </c>
       <c r="MH3" t="n">
-        <v>-229.6889508668215</v>
+        <v>-229.6889506386577</v>
       </c>
       <c r="MI3" t="n">
-        <v>-61.01751210483433</v>
+        <v>-61.01751207135364</v>
       </c>
       <c r="MJ3" t="n">
-        <v>234.1851360909025</v>
+        <v>234.1851361007914</v>
       </c>
       <c r="MK3" t="n">
-        <v>57499.99999851888</v>
+        <v>57500.00000487688</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.8559939625336587</v>
+        <v>0.8559939625921189</v>
       </c>
       <c r="MM3" t="n">
-        <v>293092.1999616554</v>
+        <v>293092.1999687243</v>
       </c>
       <c r="MN3" t="n">
-        <v>360265.5709376895</v>
+        <v>360265.5709475984</v>
       </c>
       <c r="MO3" t="n">
-        <v>3800.777670933053</v>
+        <v>3800.777670943648</v>
       </c>
       <c r="MP3" t="n">
-        <v>-529820.0651810307</v>
+        <v>-529820.0652111886</v>
       </c>
       <c r="MQ3" t="n">
-        <v>715.9876087268474</v>
+        <v>715.9876087269959</v>
       </c>
       <c r="MR3" t="n">
-        <v>1004.421565411417</v>
+        <v>1004.421565411578</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.402847693408349</v>
+        <v>1.402847693408283</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.9992670944439389</v>
+        <v>0.9992670944439906</v>
       </c>
       <c r="MU3" t="n">
-        <v>306.8632621209437</v>
+        <v>306.8632621274314</v>
       </c>
       <c r="MV3" t="n">
-        <v>80604.7242450278</v>
+        <v>80604.72425394101</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.240622071927361e-05</v>
+        <v>1.240622071790174e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>57457.92976940436</v>
+        <v>57457.92977576069</v>
       </c>
       <c r="MY3" t="n">
-        <v>1.740403811994785e-05</v>
+        <v>1.740403811802252e-05</v>
       </c>
       <c r="MZ3" t="n">
-        <v>0.004283550528504745</v>
+        <v>0.004283550528323735</v>
       </c>
       <c r="NA3" t="n">
-        <v>1.519974494116141e-05</v>
+        <v>1.519974494168904e-05</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.02128989151090501</v>
+        <v>0.02128989151170195</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999851888</v>
+        <v>57500.00000487688</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559939625336587</v>
+        <v>0.8559939625921189</v>
       </c>
       <c r="NE3" t="n">
-        <v>0.8559939625336587</v>
+        <v>0.8559939625921189</v>
       </c>
       <c r="NF3" t="n">
-        <v>293092.1999616554</v>
+        <v>293092.1999687243</v>
       </c>
       <c r="NG3" t="n">
-        <v>360265.5709376895</v>
+        <v>360265.5709475984</v>
       </c>
       <c r="NH3" t="n">
-        <v>3800.777670933053</v>
+        <v>3800.777670943648</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876087268474</v>
+        <v>715.9876087269959</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565411417</v>
+        <v>1004.421565411578</v>
       </c>
       <c r="NK3" t="n">
-        <v>306.8632621209437</v>
+        <v>306.8632621274314</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670944439389</v>
+        <v>0.9992670944439906</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.519974494116141e-05</v>
+        <v>1.519974494168904e-05</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.02128989151090501</v>
+        <v>0.02128989151170195</v>
       </c>
       <c r="NO3" t="n">
-        <v>244.3375268115934</v>
+        <v>244.3375268131457</v>
       </c>
       <c r="NP3" t="n">
-        <v>66682.02879636367</v>
+        <v>66682.02879764189</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9514112699601512</v>
+        <v>0.9514112699723378</v>
       </c>
       <c r="NR3" t="n">
-        <v>300344.1852926523</v>
+        <v>300344.1852937615</v>
       </c>
       <c r="NS3" t="n">
-        <v>370431.6762671459</v>
+        <v>370431.6762687009</v>
       </c>
       <c r="NT3" t="n">
-        <v>3800.777670951457</v>
+        <v>3800.777670952323</v>
       </c>
       <c r="NU3" t="n">
-        <v>-558240.9398138612</v>
+        <v>-558240.9398184178</v>
       </c>
       <c r="NV3" t="n">
-        <v>716.1698323154401</v>
+        <v>716.1698323154702</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.669713453894</v>
+        <v>1004.66971345393</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402837243514864</v>
+        <v>1.402837243514855</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992959090476636</v>
+        <v>0.9992959090476706</v>
       </c>
       <c r="NZ3" t="n">
-        <v>313.452194797222</v>
+        <v>313.452194798219</v>
       </c>
       <c r="OA3" t="n">
-        <v>93478.32499109092</v>
+        <v>93478.32499288289</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.069766708052702e-05</v>
+        <v>1.069766708032195e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>66635.1890949782</v>
+        <v>66635.189096256</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.500708579928623e-05</v>
+        <v>1.500708579899845e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004105916007562606</v>
+        <v>0.004105916007536532</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.573740359885157e-05</v>
+        <v>1.573740359893309e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02210374184987898</v>
+        <v>0.02210374185000255</v>
       </c>
       <c r="OH3" t="n">
-        <v>66682.02879636367</v>
+        <v>66682.02879764189</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9514112699601512</v>
+        <v>0.9514112699723378</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.9514112699601512</v>
+        <v>0.9514112699723378</v>
       </c>
       <c r="OK3" t="n">
-        <v>300344.1852926523</v>
+        <v>300344.1852937615</v>
       </c>
       <c r="OL3" t="n">
-        <v>370431.6762671459</v>
+        <v>370431.6762687009</v>
       </c>
       <c r="OM3" t="n">
-        <v>3800.777670951457</v>
+        <v>3800.777670952323</v>
       </c>
       <c r="ON3" t="n">
-        <v>716.1698323154401</v>
+        <v>716.1698323154702</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.669713453894</v>
+        <v>1004.66971345393</v>
       </c>
       <c r="OP3" t="n">
-        <v>313.452194797222</v>
+        <v>313.452194798219</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992959090476636</v>
+        <v>0.9992959090476706</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.573740359885157e-05</v>
+        <v>1.573740359893309e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02210374184987898</v>
+        <v>0.02210374185000255</v>
       </c>
       <c r="OT3" t="n">
-        <v>268.6018582947918</v>
+        <v>268.6018582584093</v>
       </c>
       <c r="OU3" t="n">
-        <v>92809.84604454278</v>
+        <v>92809.84599812258</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.204460603966497</v>
+        <v>1.204460603527407</v>
       </c>
       <c r="OW3" t="n">
-        <v>317682.3094609768</v>
+        <v>317682.309434977</v>
       </c>
       <c r="OX3" t="n">
-        <v>394737.4208850483</v>
+        <v>394737.4208485989</v>
       </c>
       <c r="OY3" t="n">
-        <v>3800.777670942782</v>
+        <v>3800.777670950566</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-626158.5244955337</v>
+        <v>-626158.524395792</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.7873582360932</v>
+        <v>716.7873582349422</v>
       </c>
       <c r="PB3" t="n">
-        <v>1005.447913952028</v>
+        <v>1005.447913950589</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.402714350914733</v>
+        <v>1.402714350914979</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9993927849322783</v>
+        <v>0.9993927849321189</v>
       </c>
       <c r="PE3" t="n">
-        <v>328.6654731906831</v>
+        <v>328.6654731684</v>
       </c>
       <c r="PF3" t="n">
-        <v>130107.0307922215</v>
+        <v>130107.0307271483</v>
       </c>
       <c r="PG3" t="n">
-        <v>7.68597971924347e-06</v>
+        <v>7.685979723087624e-06</v>
       </c>
       <c r="PH3" t="n">
-        <v>92753.76038419837</v>
+        <v>92753.76033779119</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.078123405302241e-05</v>
+        <v>1.078123405841654e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.003735680729671349</v>
+        <v>0.003735680730176092</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.69885088235912e-05</v>
+        <v>1.698850882174911e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.02400845948334157</v>
+        <v>0.0240084594805255</v>
       </c>
       <c r="PM3" t="n">
-        <v>92809.84604454278</v>
+        <v>92809.84599812258</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.204460603966497</v>
+        <v>1.204460603527407</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.204460603966497</v>
+        <v>1.204460603527407</v>
       </c>
       <c r="PP3" t="n">
-        <v>317682.3094609768</v>
+        <v>317682.309434977</v>
       </c>
       <c r="PQ3" t="n">
-        <v>394737.4208850483</v>
+        <v>394737.4208485989</v>
       </c>
       <c r="PR3" t="n">
-        <v>3800.777670942782</v>
+        <v>3800.777670950566</v>
       </c>
       <c r="PS3" t="n">
-        <v>716.7873582360932</v>
+        <v>716.7873582349422</v>
       </c>
       <c r="PT3" t="n">
-        <v>1005.447913952028</v>
+        <v>1005.447913950589</v>
       </c>
       <c r="PU3" t="n">
-        <v>328.6654731906831</v>
+        <v>328.6654731684</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.9993927849322783</v>
+        <v>0.9993927849321189</v>
       </c>
       <c r="PW3" t="n">
-        <v>1.69885088235912e-05</v>
+        <v>1.698850882174911e-05</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.02400845948334157</v>
+        <v>0.0240084594805255</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.4646729619895196</v>
+        <v>0.4646729617864813</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.855662296058699</v>
+        <v>0.8556622954675854</v>
       </c>
       <c r="QA3" t="n">
-        <v>385350.658735488</v>
+        <v>385350.6584903657</v>
       </c>
       <c r="QB3" t="n">
-        <v>2.742649139994791</v>
+        <v>2.742649141238757</v>
       </c>
       <c r="QC3" t="n">
-        <v>381074.8469198343</v>
+        <v>381074.846883573</v>
       </c>
       <c r="QD3" t="n">
-        <v>0.02459644690153473</v>
+        <v>0.02459644695381097</v>
       </c>
       <c r="QE3" t="n">
-        <v>0.002168220865570384</v>
+        <v>0.002168220897516761</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.01188668132027357</v>
+        <v>0.0118866813152243</v>
       </c>
       <c r="QG3" t="n">
-        <v>0.0320464679756825</v>
+        <v>0.03204646801175858</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.04267186606837348</v>
+        <v>0.04267186608723059</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.1133696831314347</v>
+        <v>0.1133696832655412</v>
       </c>
       <c r="QJ3" t="n">
-        <v>5.657189994234813e-11</v>
+        <v>3.66892766168192e-11</v>
       </c>
       <c r="QK3" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593440613484768</v>
+        <v>0.01593440613484796</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788006365304419e-07</v>
+        <v>-1.788006365303468e-07</v>
       </c>
       <c r="D2" t="n">
         <v>0.01379068410719914</v>
@@ -8272,10 +8272,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491640118951788</v>
+        <v>0.05491640118951817</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.652001452301377e-11</v>
+        <v>-2.157294481941463e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8944,46 +8944,46 @@
         <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>1473.439598262019</v>
+        <v>1473.439601988066</v>
       </c>
       <c r="HX2" t="n">
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.006566863960451821</v>
+        <v>0.006566863974021476</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-7.368705467910609e-08</v>
+        <v>-7.368705483133123e-08</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.01038187960925352</v>
+        <v>0.01038187963070627</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.005683396399410743</v>
+        <v>0.005683396411154714</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.02447288202655256</v>
+        <v>0.02447288202512895</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.001918869764584496</v>
+        <v>0.001918869764584427</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.01189012429133729</v>
+        <v>0.01189012429133687</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.031980843139544</v>
+        <v>0.03198084313955896</v>
       </c>
       <c r="IH2" t="n">
         <v>0.04237646467669577</v>
       </c>
       <c r="II2" t="n">
-        <v>0.1126391838987141</v>
+        <v>0.112639183897305</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1.380141279039293e-10</v>
+        <v>-1.234647106773679e-11</v>
       </c>
       <c r="IK2" t="n">
         <v>165.3032</v>
@@ -9013,298 +9013,298 @@
         <v>36.41431508150551</v>
       </c>
       <c r="IT2" t="n">
-        <v>258.6798007581448</v>
+        <v>258.6798007581378</v>
       </c>
       <c r="IU2" t="n">
-        <v>84891.32871215032</v>
+        <v>84891.32870986193</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.144036534101327</v>
+        <v>1.144036534070497</v>
       </c>
       <c r="IW2" t="n">
-        <v>310582.6205862673</v>
+        <v>310582.6205862678</v>
       </c>
       <c r="IX2" t="n">
-        <v>384785.957788986</v>
+        <v>384785.9577889859</v>
       </c>
       <c r="IY2" t="n">
-        <v>3788.609748081803</v>
+        <v>3788.609748089536</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-595250.8569951801</v>
+        <v>-595250.8569971538</v>
       </c>
       <c r="JA2" t="n">
-        <v>716.5135610134387</v>
+        <v>716.5135610134304</v>
       </c>
       <c r="JB2" t="n">
-        <v>1005.174772344281</v>
+        <v>1005.174772344229</v>
       </c>
       <c r="JC2" t="n">
-        <v>1.402869152849751</v>
+        <v>1.402869152849695</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.9993202541141269</v>
+        <v>0.999320254114145</v>
       </c>
       <c r="JE2" t="n">
-        <v>322.5322908681621</v>
+        <v>322.5322908681571</v>
       </c>
       <c r="JF2" t="n">
-        <v>119010.7785144807</v>
+        <v>119010.7785112698</v>
       </c>
       <c r="JG2" t="n">
-        <v>8.402600272699879e-06</v>
+        <v>8.402600272926574e-06</v>
       </c>
       <c r="JH2" t="n">
-        <v>84833.84089865067</v>
+        <v>84833.84089636535</v>
       </c>
       <c r="JI2" t="n">
-        <v>1.178774872629757e-05</v>
+        <v>1.178774872661512e-05</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.003879255080750597</v>
+        <v>0.00387925508075034</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.648304723674746e-05</v>
+        <v>1.648304723674675e-05</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.02323755461292406</v>
+        <v>0.02323755461292266</v>
       </c>
       <c r="JM2" t="n">
-        <v>84891.32871215032</v>
+        <v>84891.32870986193</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.144036534101327</v>
+        <v>1.144036534070497</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.144036534101327</v>
+        <v>1.144036534070497</v>
       </c>
       <c r="JP2" t="n">
-        <v>310582.6205862673</v>
+        <v>310582.6205862678</v>
       </c>
       <c r="JQ2" t="n">
-        <v>384785.957788986</v>
+        <v>384785.9577889859</v>
       </c>
       <c r="JR2" t="n">
-        <v>3788.609748081803</v>
+        <v>3788.609748089536</v>
       </c>
       <c r="JS2" t="n">
-        <v>716.5135610134387</v>
+        <v>716.5135610134304</v>
       </c>
       <c r="JT2" t="n">
-        <v>1005.174772344281</v>
+        <v>1005.174772344229</v>
       </c>
       <c r="JU2" t="n">
-        <v>322.5322908681621</v>
+        <v>322.5322908681571</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9993202541141269</v>
+        <v>0.999320254114145</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.648304723674746e-05</v>
+        <v>1.648304723674675e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02323755461292406</v>
+        <v>0.02323755461292266</v>
       </c>
       <c r="JY2" t="n">
-        <v>295.5937144863261</v>
+        <v>295.5937144862176</v>
       </c>
       <c r="JZ2" t="n">
-        <v>135289.0393173533</v>
+        <v>135289.0393135461</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.595200320527927</v>
+        <v>1.595200320483603</v>
       </c>
       <c r="KB2" t="n">
-        <v>336974.3683168248</v>
+        <v>336974.3683167543</v>
       </c>
       <c r="KC2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.609748087002</v>
+        <v>3788.609748094736</v>
       </c>
       <c r="KE2" t="n">
-        <v>-698104.7970876516</v>
+        <v>-698104.7970896271</v>
       </c>
       <c r="KF2" t="n">
-        <v>717.856175186751</v>
+        <v>717.8561751867368</v>
       </c>
       <c r="KG2" t="n">
-        <v>1006.777073038441</v>
+        <v>1006.777073038376</v>
       </c>
       <c r="KH2" t="n">
-        <v>1.402477415168194</v>
+        <v>1.402477415168131</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.9995302899915404</v>
+        <v>0.999530289991552</v>
       </c>
       <c r="KJ2" t="n">
-        <v>344.8027749233801</v>
+        <v>344.8027749233131</v>
       </c>
       <c r="KK2" t="n">
-        <v>189651.6968817555</v>
+        <v>189651.6968764121</v>
       </c>
       <c r="KL2" t="n">
-        <v>5.272823900033345e-06</v>
+        <v>5.272823900181908e-06</v>
       </c>
       <c r="KM2" t="n">
-        <v>135226.2038808028</v>
+        <v>135226.2038769989</v>
       </c>
       <c r="KN2" t="n">
-        <v>7.395016433955844e-06</v>
+        <v>7.395016434163866e-06</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.003395619870061637</v>
+        <v>0.003395619870062544</v>
       </c>
       <c r="KP2" t="n">
-        <v>1.832925574426864e-05</v>
+        <v>1.832925574426283e-05</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.02606729613576364</v>
+        <v>0.02606729613575432</v>
       </c>
       <c r="KR2" t="n">
-        <v>135289.0393173533</v>
+        <v>135289.0393135461</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.595200320527927</v>
+        <v>1.595200320483603</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200320527927</v>
+        <v>1.595200320483603</v>
       </c>
       <c r="KU2" t="n">
-        <v>336974.3683168248</v>
+        <v>336974.3683167543</v>
       </c>
       <c r="KV2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KW2" t="n">
-        <v>3788.609748087002</v>
+        <v>3788.609748094736</v>
       </c>
       <c r="KX2" t="n">
-        <v>717.856175186751</v>
+        <v>717.8561751867368</v>
       </c>
       <c r="KY2" t="n">
-        <v>1006.777073038441</v>
+        <v>1006.777073038376</v>
       </c>
       <c r="KZ2" t="n">
-        <v>344.8027749233801</v>
+        <v>344.8027749233131</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9995302899915404</v>
+        <v>0.999530289991552</v>
       </c>
       <c r="LB2" t="n">
-        <v>1.832925574426864e-05</v>
+        <v>1.832925574426283e-05</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.02606729613576364</v>
+        <v>0.02606729613575432</v>
       </c>
       <c r="LD2" t="n">
-        <v>268.3436842095572</v>
+        <v>268.3436842097498</v>
       </c>
       <c r="LE2" t="n">
-        <v>96492.24862643357</v>
+        <v>96492.24862408286</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.253488950025148</v>
+        <v>1.253488949993689</v>
       </c>
       <c r="LG2" t="n">
-        <v>317488.4551830902</v>
+        <v>317488.4551832339</v>
       </c>
       <c r="LH2" t="n">
-        <v>394467.3935490788</v>
+        <v>394467.3935492792</v>
       </c>
       <c r="LI2" t="n">
-        <v>3788.609748088448</v>
+        <v>3788.609748096182</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-622182.1042852175</v>
+        <v>-622182.1042878225</v>
       </c>
       <c r="LK2" t="n">
-        <v>716.792157279006</v>
+        <v>716.7921572790034</v>
       </c>
       <c r="LL2" t="n">
-        <v>1005.520591120432</v>
+        <v>1005.520591120386</v>
       </c>
       <c r="LM2" t="n">
-        <v>1.402806351756777</v>
+        <v>1.402806351756717</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.9993653998623504</v>
+        <v>0.9993653998623683</v>
       </c>
       <c r="LO2" t="n">
-        <v>328.5092924320789</v>
+        <v>328.5092924321957</v>
       </c>
       <c r="LP2" t="n">
-        <v>135274.46576592</v>
+        <v>135274.4657626212</v>
       </c>
       <c r="LQ2" t="n">
-        <v>7.392378113179228e-06</v>
+        <v>7.392378113359501e-06</v>
       </c>
       <c r="LR2" t="n">
-        <v>96431.31826179125</v>
+        <v>96431.31825944375</v>
       </c>
       <c r="LS2" t="n">
-        <v>1.03700749717556e-05</v>
+        <v>1.037007497200804e-05</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.003739816483958097</v>
+        <v>0.003739816483955061</v>
       </c>
       <c r="LU2" t="n">
-        <v>1.697604497847597e-05</v>
+        <v>1.697604497848533e-05</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.02398989780516931</v>
+        <v>0.0239898978051833</v>
       </c>
       <c r="LW2" t="n">
-        <v>96492.24862643357</v>
+        <v>96492.24862408286</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.253488950025148</v>
+        <v>1.253488949993689</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.253488950025148</v>
+        <v>1.253488949993689</v>
       </c>
       <c r="LZ2" t="n">
-        <v>317488.4551830902</v>
+        <v>317488.4551832339</v>
       </c>
       <c r="MA2" t="n">
-        <v>394467.3935490788</v>
+        <v>394467.3935492792</v>
       </c>
       <c r="MB2" t="n">
-        <v>3788.609748088448</v>
+        <v>3788.609748096182</v>
       </c>
       <c r="MC2" t="n">
-        <v>716.792157279006</v>
+        <v>716.7921572790034</v>
       </c>
       <c r="MD2" t="n">
-        <v>1005.520591120432</v>
+        <v>1005.520591120386</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.5092924320789</v>
+        <v>328.5092924321957</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.9993653998623504</v>
+        <v>0.9993653998623683</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.697604497847597e-05</v>
+        <v>1.697604497848533e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02398989780516931</v>
+        <v>0.0239898978051833</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.8434001976122509</v>
+        <v>0.843400197612264</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.4314313307726541</v>
+        <v>0.4314313307726608</v>
       </c>
       <c r="MK2" t="n">
-        <v>251687.5212658775</v>
+        <v>251687.5212591059</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.750323508559537</v>
+        <v>2.750323508485421</v>
       </c>
       <c r="MM2" t="n">
-        <v>380804.8195840592</v>
+        <v>380804.8195840591</v>
       </c>
       <c r="MN2" t="n">
         <v>165.3032</v>
@@ -9337,22 +9337,22 @@
         <v>226.3832932828262</v>
       </c>
       <c r="MX2" t="n">
-        <v>50711.02206488144</v>
+        <v>50711.02206488129</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.7809539865823703</v>
+        <v>0.7809539865823683</v>
       </c>
       <c r="MZ2" t="n">
         <v>287520.9313538265</v>
       </c>
       <c r="NA2" t="n">
-        <v>352455.6431757154</v>
+        <v>352455.6431757153</v>
       </c>
       <c r="NB2" t="n">
-        <v>3802.898799163802</v>
+        <v>3802.898799163801</v>
       </c>
       <c r="NC2" t="n">
-        <v>-508457.1110002912</v>
+        <v>-508457.111000291</v>
       </c>
       <c r="ND2" t="n">
         <v>715.8712582964959</v>
@@ -9370,19 +9370,19 @@
         <v>301.7027546449807</v>
       </c>
       <c r="NI2" t="n">
-        <v>71085.9868865154</v>
+        <v>71085.98688651522</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1.406747016956297e-05</v>
+        <v>1.406747016956301e-05</v>
       </c>
       <c r="NK2" t="n">
-        <v>50673.28930194341</v>
+        <v>50673.28930194326</v>
       </c>
       <c r="NL2" t="n">
-        <v>1.973426264163294e-05</v>
+        <v>1.9734262641633e-05</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.004430768955187534</v>
+        <v>0.004430768955187535</v>
       </c>
       <c r="NN2" t="n">
         <v>1.478048795550475e-05</v>
@@ -9391,22 +9391,22 @@
         <v>0.02065714931070654</v>
       </c>
       <c r="NP2" t="n">
-        <v>50711.02206488144</v>
+        <v>50711.02206488129</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7809539865823703</v>
+        <v>0.7809539865823683</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.7809539865823703</v>
+        <v>0.7809539865823683</v>
       </c>
       <c r="NS2" t="n">
         <v>287520.9313538265</v>
       </c>
       <c r="NT2" t="n">
-        <v>352455.6431757154</v>
+        <v>352455.6431757153</v>
       </c>
       <c r="NU2" t="n">
-        <v>3802.898799163802</v>
+        <v>3802.898799163801</v>
       </c>
       <c r="NV2" t="n">
         <v>715.8712582964959</v>
@@ -9427,10 +9427,10 @@
         <v>0.02065714931070654</v>
       </c>
       <c r="OB2" t="n">
-        <v>240.0687878241713</v>
+        <v>240.0687878241712</v>
       </c>
       <c r="OC2" t="n">
-        <v>62242.23276989425</v>
+        <v>62242.23276989424</v>
       </c>
       <c r="OD2" t="n">
         <v>0.903862694492315</v>
@@ -9439,7 +9439,7 @@
         <v>297296.0976265251</v>
       </c>
       <c r="OF2" t="n">
-        <v>366158.5843174431</v>
+        <v>366158.584317443</v>
       </c>
       <c r="OG2" t="n">
         <v>3802.898799158979</v>
@@ -9475,7 +9475,7 @@
         <v>1.607768190015855e-05</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.004178679781970188</v>
+        <v>0.004178679781970189</v>
       </c>
       <c r="OS2" t="n">
         <v>1.551232156181815e-05</v>
@@ -9484,7 +9484,7 @@
         <v>0.02176262158035559</v>
       </c>
       <c r="OU2" t="n">
-        <v>62242.23276989425</v>
+        <v>62242.23276989424</v>
       </c>
       <c r="OV2" t="n">
         <v>0.903862694492315</v>
@@ -9496,7 +9496,7 @@
         <v>297296.0976265251</v>
       </c>
       <c r="OY2" t="n">
-        <v>366158.5843174431</v>
+        <v>366158.584317443</v>
       </c>
       <c r="OZ2" t="n">
         <v>3802.898799158979</v>
@@ -9520,118 +9520,118 @@
         <v>0.02176262158035559</v>
       </c>
       <c r="PG2" t="n">
-        <v>268.3304542389383</v>
+        <v>268.330454239032</v>
       </c>
       <c r="PH2" t="n">
-        <v>91803.71116468089</v>
+        <v>91803.71116479278</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.192604568700717</v>
+        <v>1.192604568701754</v>
       </c>
       <c r="PJ2" t="n">
-        <v>317489.8994375338</v>
+        <v>317489.8994376006</v>
       </c>
       <c r="PK2" t="n">
-        <v>394467.3935491792</v>
+        <v>394467.393549273</v>
       </c>
       <c r="PL2" t="n">
         <v>3802.898799153154</v>
       </c>
       <c r="PM2" t="n">
-        <v>-625966.1686522997</v>
+        <v>-625966.1686525623</v>
       </c>
       <c r="PN2" t="n">
-        <v>716.776661227171</v>
+        <v>716.7766612271739</v>
       </c>
       <c r="PO2" t="n">
-        <v>1005.423563379151</v>
+        <v>1005.423563379155</v>
       </c>
       <c r="PP2" t="n">
-        <v>1.402701312369458</v>
+        <v>1.402701312369457</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9993959226408493</v>
+        <v>0.9993959226408498</v>
       </c>
       <c r="PR2" t="n">
-        <v>328.4988790781716</v>
+        <v>328.498879078229</v>
       </c>
       <c r="PS2" t="n">
-        <v>128695.7640818361</v>
+        <v>128695.7640819929</v>
       </c>
       <c r="PT2" t="n">
-        <v>7.770263513600277e-06</v>
+        <v>7.770263513590807e-06</v>
       </c>
       <c r="PU2" t="n">
-        <v>91748.5162001038</v>
+        <v>91748.51620021569</v>
       </c>
       <c r="PV2" t="n">
-        <v>1.089935882798362e-05</v>
+        <v>1.089935882797033e-05</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.003739359131509249</v>
+        <v>0.003739359131507946</v>
       </c>
       <c r="PX2" t="n">
-        <v>1.697466410145293e-05</v>
+        <v>1.697466410145767e-05</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.02398721462474024</v>
+        <v>0.02398721462474748</v>
       </c>
       <c r="PZ2" t="n">
-        <v>91803.71116468089</v>
+        <v>91803.71116479278</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.192604568700717</v>
+        <v>1.192604568701754</v>
       </c>
       <c r="QB2" t="n">
-        <v>1.192604568700717</v>
+        <v>1.192604568701754</v>
       </c>
       <c r="QC2" t="n">
-        <v>317489.8994375338</v>
+        <v>317489.8994376006</v>
       </c>
       <c r="QD2" t="n">
-        <v>394467.3935491792</v>
+        <v>394467.393549273</v>
       </c>
       <c r="QE2" t="n">
         <v>3802.898799153154</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.776661227171</v>
+        <v>716.7766612271739</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.423563379151</v>
+        <v>1005.423563379155</v>
       </c>
       <c r="QH2" t="n">
-        <v>328.4988790781716</v>
+        <v>328.498879078229</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993959226408493</v>
+        <v>0.9993959226408498</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.697466410145293e-05</v>
+        <v>1.697466410145767e-05</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.02398721462474024</v>
+        <v>0.02398721462474748</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.0245473557431075</v>
+        <v>0.02454735574306526</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.002565106083969048</v>
+        <v>0.002565106083968951</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.01188196848270755</v>
+        <v>0.0118819684827071</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.032119705903622</v>
+        <v>0.03211970590363773</v>
       </c>
       <c r="QP2" t="n">
         <v>0.04296617880409803</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.1140803150175041</v>
+        <v>0.1140803150174771</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.631784986314e-05</v>
+        <v>1.63177896510408e-05</v>
       </c>
       <c r="QS2" t="n">
         <v>0.5487096758553796</v>
@@ -9640,37 +9640,37 @@
         <v>0.9607737094417538</v>
       </c>
       <c r="QU2" t="n">
-        <v>399127.334468233</v>
+        <v>399127.3344682321</v>
       </c>
       <c r="QV2" t="n">
-        <v>2.750304354183168</v>
+        <v>2.75030435418316</v>
       </c>
       <c r="QW2" t="n">
-        <v>380804.8195840592</v>
+        <v>380804.8195840591</v>
       </c>
       <c r="QX2" t="n">
         <v>0</v>
       </c>
       <c r="QY2" t="n">
-        <v>2666.336739454477</v>
+        <v>2666.336737642821</v>
       </c>
       <c r="QZ2" t="n">
-        <v>6.130850095279555</v>
+        <v>6.130850095279577</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.00889820664885678</v>
+        <v>0.008898206638289679</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.0006976905980664858</v>
+        <v>0.0006976905972785009</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.01162806042833784</v>
+        <v>0.01162806041521075</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01540785181459629</v>
+        <v>0.01540785179719492</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.004323184450042272</v>
+        <v>0.004323184445159584</v>
       </c>
     </row>
     <row r="3">
@@ -9678,34 +9678,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0159510014692575</v>
+        <v>0.01595100147163165</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793991198663737e-07</v>
+        <v>-1.793991196041439e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379123038043169</v>
+        <v>0.01379123038051363</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518399105148189</v>
+        <v>0.02518399105034646</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492604350205121</v>
+        <v>0.05492604350337213</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.315985069336392e-12</v>
+        <v>-2.550945565893414e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172546657</v>
+        <v>81.75758172518788</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172546657</v>
+        <v>81.75758172518788</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172546657</v>
+        <v>81.75758172518788</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172546657</v>
+        <v>81.75758172518788</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9726,97 +9726,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180724649</v>
+        <v>292.2676180724874</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394374511</v>
+        <v>132637.8394374874</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096100073</v>
+        <v>1.581790096100384</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834750665</v>
+        <v>334589.2834750828</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800037916</v>
+        <v>418442.2800038144</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.962580352</v>
+        <v>-687181.962580414</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704001</v>
+        <v>717.709071370401</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103391</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AA3" t="n">
         <v>1.402578355574213</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756391</v>
+        <v>0.9994973723756393</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121221702</v>
+        <v>342.8584121221834</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165866497</v>
+        <v>185942.4165867006</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.3780090543999e-06</v>
+        <v>5.378009054398427e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565723376</v>
+        <v>132571.8565723739</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095783437e-06</v>
+        <v>7.543079095781374e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038600368</v>
+        <v>0.003434455038600107</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856046514e-05</v>
+        <v>1.816725856046624e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190127112</v>
+        <v>0.02581791190127282</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394374511</v>
+        <v>132637.8394374874</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096100073</v>
+        <v>1.581790096100384</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096100073</v>
+        <v>1.581790096100384</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834750665</v>
+        <v>334589.2834750828</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800037916</v>
+        <v>418442.2800038144</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704001</v>
+        <v>717.709071370401</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103391</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121221702</v>
+        <v>342.8584121221834</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756391</v>
+        <v>0.9994973723756393</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856046514e-05</v>
+        <v>1.816725856046624e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190127112</v>
+        <v>0.02581791190127282</v>
       </c>
       <c r="AW3" t="n">
         <v>295.6000000001888</v>
@@ -10005,16 +10005,16 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2384587305862398</v>
+        <v>0.2384587305854178</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2384587305862398</v>
+        <v>0.2384587305854178</v>
       </c>
       <c r="DI3" t="n">
-        <v>186219.5323220748</v>
+        <v>186219.5323214654</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.776369934749207</v>
+        <v>2.776369934740289</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -10023,340 +10023,340 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>309.3780765460956</v>
+        <v>309.378076632043</v>
       </c>
       <c r="DN3" t="n">
-        <v>126.4136412058219</v>
+        <v>126.4136412409405</v>
       </c>
       <c r="DO3" t="n">
-        <v>282.3727776618127</v>
+        <v>282.3727777402578</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>309.3780765460956</v>
+        <v>309.378076632043</v>
       </c>
       <c r="DR3" t="n">
-        <v>126.4136412058219</v>
+        <v>126.4136412409405</v>
       </c>
       <c r="DS3" t="n">
-        <v>282.3727776618127</v>
+        <v>282.3727777402578</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>247.8365050265389</v>
+        <v>247.8365050000844</v>
       </c>
       <c r="DV3" t="n">
-        <v>72726.23795146636</v>
+        <v>72726.23792356564</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.023014671652523</v>
+        <v>1.023014671369339</v>
       </c>
       <c r="DX3" t="n">
-        <v>302836.9118320676</v>
+        <v>302836.9118131719</v>
       </c>
       <c r="DY3" t="n">
-        <v>373927.0339649089</v>
+        <v>373927.0339384188</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3790.093061318963</v>
+        <v>3790.093061322123</v>
       </c>
       <c r="EA3" t="n">
-        <v>-565396.3840777186</v>
+        <v>-565396.3840047268</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.2529430578198</v>
+        <v>716.2529430572487</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.831581205719</v>
+        <v>1004.831581204951</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402900457086992</v>
+        <v>1.402900457087039</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9992812859007165</v>
+        <v>0.9992812859006309</v>
       </c>
       <c r="EF3" t="n">
-        <v>315.6911156056617</v>
+        <v>315.691115588791</v>
       </c>
       <c r="EG3" t="n">
-        <v>101954.5429130196</v>
+        <v>101954.5428739003</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.808292709949461e-06</v>
+        <v>9.808292713712847e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72674.1105528755</v>
+        <v>72674.11052498844</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.376005832603111e-05</v>
+        <v>1.376005833131123e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004048559443648752</v>
+        <v>0.00404855944407987</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.592113117153928e-05</v>
+        <v>1.592113117015689e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.02238288374232291</v>
+        <v>0.02238288374022412</v>
       </c>
       <c r="EN3" t="n">
-        <v>72726.23795146636</v>
+        <v>72726.23792356564</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.023014671652523</v>
+        <v>1.023014671369339</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.023014671652523</v>
+        <v>1.023014671369339</v>
       </c>
       <c r="EQ3" t="n">
-        <v>302836.9118320676</v>
+        <v>302836.9118131719</v>
       </c>
       <c r="ER3" t="n">
-        <v>373927.0339649089</v>
+        <v>373927.0339384188</v>
       </c>
       <c r="ES3" t="n">
-        <v>3790.093061318963</v>
+        <v>3790.093061322123</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.2529430578198</v>
+        <v>716.2529430572487</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.831581205719</v>
+        <v>1004.831581204951</v>
       </c>
       <c r="EV3" t="n">
-        <v>315.6911156056617</v>
+        <v>315.691115588791</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9992812859007165</v>
+        <v>0.9992812859006309</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.592113117153928e-05</v>
+        <v>1.592113117015689e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.02238288374232291</v>
+        <v>0.02238288374022412</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5920968650477</v>
+        <v>295.5920968650441</v>
       </c>
       <c r="FA3" t="n">
-        <v>134591.416559691</v>
+        <v>134591.4165582095</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.586979527269722</v>
+        <v>1.586979527252264</v>
       </c>
       <c r="FC3" t="n">
-        <v>336974.6309325119</v>
+        <v>336974.6309325125</v>
       </c>
       <c r="FD3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FE3" t="n">
-        <v>3790.093061328611</v>
+        <v>3790.093061331771</v>
       </c>
       <c r="FF3" t="n">
-        <v>-698537.1242231018</v>
+        <v>-698537.1242240225</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.8543580608273</v>
+        <v>717.8543580608235</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.765618720749</v>
+        <v>1006.765618720724</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.402465008975317</v>
+        <v>1.402465008975291</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.999532664823402</v>
+        <v>0.999532664823407</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.8011163636197</v>
+        <v>344.8011163636162</v>
       </c>
       <c r="FL3" t="n">
-        <v>188672.5202669003</v>
+        <v>188672.520264821</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.300188912436098e-06</v>
+        <v>5.300188912494511e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>134529.2175273237</v>
+        <v>134529.2175258435</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.433329490650567e-06</v>
+        <v>7.433329490732352e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395573843599795</v>
+        <v>0.003395573843599699</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832907665247623e-05</v>
+        <v>1.832907665247584e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02606695184419967</v>
+        <v>0.02606695184419893</v>
       </c>
       <c r="FS3" t="n">
-        <v>134591.416559691</v>
+        <v>134591.4165582095</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.586979527269722</v>
+        <v>1.586979527252264</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.586979527269722</v>
+        <v>1.586979527252264</v>
       </c>
       <c r="FV3" t="n">
-        <v>336974.6309325119</v>
+        <v>336974.6309325125</v>
       </c>
       <c r="FW3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FX3" t="n">
-        <v>3790.093061328611</v>
+        <v>3790.093061331771</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.8543580608273</v>
+        <v>717.8543580608235</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.765618720749</v>
+        <v>1006.765618720724</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.8011163636197</v>
+        <v>344.8011163636162</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.999532664823402</v>
+        <v>0.999532664823407</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832907665247623e-05</v>
+        <v>1.832907665247584e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02606695184419967</v>
+        <v>0.02606695184419893</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.5920968650477</v>
+        <v>295.5920968650441</v>
       </c>
       <c r="GF3" t="n">
-        <v>134591.416559691</v>
+        <v>134591.4165582095</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.586979527269722</v>
+        <v>1.586979527252264</v>
       </c>
       <c r="GH3" t="n">
-        <v>336974.6309325119</v>
+        <v>336974.6309325125</v>
       </c>
       <c r="GI3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3790.093061328611</v>
+        <v>3790.093061331771</v>
       </c>
       <c r="GK3" t="n">
-        <v>-698537.1242231018</v>
+        <v>-698537.1242240225</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.8543580608273</v>
+        <v>717.8543580608235</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.765618720749</v>
+        <v>1006.765618720724</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402465008975317</v>
+        <v>1.402465008975291</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.999532664823402</v>
+        <v>0.999532664823407</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.8011163636197</v>
+        <v>344.8011163636162</v>
       </c>
       <c r="GQ3" t="n">
-        <v>188672.5202669003</v>
+        <v>188672.520264821</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.300188912436098e-06</v>
+        <v>5.300188912494511e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>134529.2175273237</v>
+        <v>134529.2175258435</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.433329490650567e-06</v>
+        <v>7.433329490732352e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395573843599795</v>
+        <v>0.003395573843599699</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832907665247623e-05</v>
+        <v>1.832907665247584e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.02606695184419967</v>
+        <v>0.02606695184419893</v>
       </c>
       <c r="GX3" t="n">
-        <v>134591.416559691</v>
+        <v>134591.4165582095</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.586979527269722</v>
+        <v>1.586979527252264</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.586979527269722</v>
+        <v>1.586979527252264</v>
       </c>
       <c r="HA3" t="n">
-        <v>336974.6309325119</v>
+        <v>336974.6309325125</v>
       </c>
       <c r="HB3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.43108869</v>
       </c>
       <c r="HC3" t="n">
-        <v>3790.093061328611</v>
+        <v>3790.093061331771</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.8543580608273</v>
+        <v>717.8543580608235</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.765618720749</v>
+        <v>1006.765618720724</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.8011163636197</v>
+        <v>344.8011163636162</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.999532664823402</v>
+        <v>0.999532664823407</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832907665247623e-05</v>
+        <v>1.832907665247584e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606695184419967</v>
+        <v>0.02606695184419893</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01619337326394658</v>
+        <v>0.0161933732641977</v>
       </c>
       <c r="HK3" t="n">
-        <v>-1.972005760344284e-07</v>
+        <v>-1.97200577473907e-07</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.01379727827868041</v>
+        <v>0.01379727827868035</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.02510093007318003</v>
+        <v>0.02510093007318158</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.05509138441523098</v>
+        <v>0.05509138441548216</v>
       </c>
       <c r="HP3" t="n">
-        <v>5.578243635805114e-06</v>
+        <v>5.578243803497362e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9800024810725054</v>
+        <v>0.980002481397129</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9800024810725054</v>
+        <v>0.980002481397129</v>
       </c>
       <c r="HS3" t="n">
-        <v>520038.1641773899</v>
+        <v>520038.1642230607</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.776362991773512</v>
+        <v>2.776362991776272</v>
       </c>
       <c r="HU3" t="n">
         <v>421784.4310885898</v>
@@ -10365,733 +10365,733 @@
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>1485.077868917841</v>
+        <v>1485.077870845154</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006324918159083205</v>
+        <v>0.006324918181887825</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-7.113564331075131e-08</v>
+        <v>-7.113564345266464e-08</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.009985998849457903</v>
+        <v>0.009985998883526082</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005468522063483501</v>
+        <v>0.00546852208241892</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02459644690153473</v>
+        <v>0.02459644695381097</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.002168220865570384</v>
+        <v>0.002168220897516761</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.01188668132027357</v>
+        <v>0.0118866813152243</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.0320464679756825</v>
+        <v>0.03204646801175858</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.04267186606837348</v>
+        <v>0.04267186608723059</v>
       </c>
       <c r="II3" t="n">
-        <v>0.1133696831314347</v>
+        <v>0.1133696832655412</v>
       </c>
       <c r="IJ3" t="n">
-        <v>5.657189994234813e-11</v>
+        <v>3.66892766168192e-11</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>272.2090735227434</v>
+        <v>272.2090735478523</v>
       </c>
       <c r="IM3" t="n">
-        <v>111.9871314096022</v>
+        <v>111.9871314095953</v>
       </c>
       <c r="IN3" t="n">
-        <v>248.1061508845737</v>
+        <v>248.1061509121249</v>
       </c>
       <c r="IO3" t="n">
-        <v>65.70711543546795</v>
+        <v>65.70711543785504</v>
       </c>
       <c r="IP3" t="n">
-        <v>139.2747151371871</v>
+        <v>139.2747151535616</v>
       </c>
       <c r="IQ3" t="n">
-        <v>111.9871314096022</v>
+        <v>111.9871314095953</v>
       </c>
       <c r="IR3" t="n">
-        <v>82.80295088457368</v>
+        <v>82.80295091212494</v>
       </c>
       <c r="IS3" t="n">
-        <v>36.47911083199131</v>
+        <v>36.47911084110655</v>
       </c>
       <c r="IT3" t="n">
-        <v>258.6294204902638</v>
+        <v>258.6294204834264</v>
       </c>
       <c r="IU3" t="n">
-        <v>84817.68660796271</v>
+        <v>84817.68659554048</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.143266862761779</v>
+        <v>1.143266862624555</v>
       </c>
       <c r="IW3" t="n">
-        <v>310546.6625303363</v>
+        <v>310546.662525462</v>
       </c>
       <c r="IX3" t="n">
-        <v>384735.5412345344</v>
+        <v>384735.5412276993</v>
       </c>
       <c r="IY3" t="n">
-        <v>3788.663779675336</v>
+        <v>3788.663779690919</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-595124.3765353501</v>
+        <v>-595124.3765203111</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.512173628113</v>
+        <v>716.5121736279161</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.172733109128</v>
+        <v>1005.172733108797</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.402869023172853</v>
+        <v>1.402869023172775</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993201636386678</v>
+        <v>0.9993201636386749</v>
       </c>
       <c r="JE3" t="n">
-        <v>322.500836549288</v>
+        <v>322.5008365450184</v>
       </c>
       <c r="JF3" t="n">
-        <v>118907.516023324</v>
+        <v>118907.5160059032</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.409897317204471e-06</v>
+        <v>8.409897318436576e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>84760.24066337441</v>
+        <v>84760.24065096115</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.179798443437063e-05</v>
+        <v>1.179798443609846e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.003880006726372997</v>
+        <v>0.003880006726474641</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.648045579073744e-05</v>
+        <v>1.648045579038536e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02323360408184198</v>
+        <v>0.02323360408130492</v>
       </c>
       <c r="JM3" t="n">
-        <v>84817.68660796271</v>
+        <v>84817.68659554048</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.143266862761779</v>
+        <v>1.143266862624555</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.143266862761779</v>
+        <v>1.143266862624555</v>
       </c>
       <c r="JP3" t="n">
-        <v>310546.6625303363</v>
+        <v>310546.662525462</v>
       </c>
       <c r="JQ3" t="n">
-        <v>384735.5412345344</v>
+        <v>384735.5412276993</v>
       </c>
       <c r="JR3" t="n">
-        <v>3788.663779675336</v>
+        <v>3788.663779690919</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.512173628113</v>
+        <v>716.5121736279161</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.172733109128</v>
+        <v>1005.172733108797</v>
       </c>
       <c r="JU3" t="n">
-        <v>322.500836549288</v>
+        <v>322.5008365450184</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993201636386678</v>
+        <v>0.9993201636386749</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.648045579073744e-05</v>
+        <v>1.648045579038536e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02323360408184198</v>
+        <v>0.02323360408130492</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.5936554165689</v>
+        <v>295.5936554165519</v>
       </c>
       <c r="JZ3" t="n">
-        <v>135263.5641359379</v>
+        <v>135263.5641285908</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.594900121648588</v>
+        <v>1.59490012156201</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.3779072525</v>
+        <v>336974.3779072554</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.663779680537</v>
+        <v>3788.663779696122</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698120.5446915345</v>
+        <v>-698120.5446960767</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.8561088314536</v>
+        <v>717.8561088314344</v>
       </c>
       <c r="KG3" t="n">
-        <v>1006.776654763231</v>
+        <v>1006.77665476311</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402476962133943</v>
+        <v>1.402476962133813</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.9995303767050211</v>
+        <v>0.9995303767050462</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.8027143551621</v>
+        <v>344.8027143551446</v>
       </c>
       <c r="KK3" t="n">
-        <v>189615.9399350522</v>
+        <v>189615.9399247399</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.273818226160327e-06</v>
+        <v>5.273818226447145e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>135200.7519942013</v>
+        <v>135200.751986861</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.396408564671958e-06</v>
+        <v>7.396408565073526e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395618189367485</v>
+        <v>0.003395618189367001</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.832924920427048e-05</v>
+        <v>1.832924920426861e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606728356296194</v>
+        <v>0.02606728356295834</v>
       </c>
       <c r="KR3" t="n">
-        <v>135263.5641359379</v>
+        <v>135263.5641285908</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.594900121648588</v>
+        <v>1.59490012156201</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594900121648588</v>
+        <v>1.59490012156201</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.3779072525</v>
+        <v>336974.3779072554</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KW3" t="n">
-        <v>3788.663779680537</v>
+        <v>3788.663779696122</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.8561088314536</v>
+        <v>717.8561088314344</v>
       </c>
       <c r="KY3" t="n">
-        <v>1006.776654763231</v>
+        <v>1006.77665476311</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.8027143551621</v>
+        <v>344.8027143551446</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9995303767050211</v>
+        <v>0.9995303767050462</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.832924920427048e-05</v>
+        <v>1.832924920426861e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606728356296194</v>
+        <v>0.02606728356295834</v>
       </c>
       <c r="LD3" t="n">
-        <v>268.3105684768627</v>
+        <v>268.3105684723027</v>
       </c>
       <c r="LE3" t="n">
-        <v>96432.56309046103</v>
+        <v>96432.56307951662</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.252868274917227</v>
+        <v>1.252868274796313</v>
       </c>
       <c r="LG3" t="n">
-        <v>317464.8294999888</v>
+        <v>317464.8294967421</v>
       </c>
       <c r="LH3" t="n">
-        <v>394434.2643728066</v>
+        <v>394434.2643682526</v>
       </c>
       <c r="LI3" t="n">
-        <v>3788.663779681984</v>
+        <v>3788.66377969757</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-622104.2681213658</v>
+        <v>-622104.2681128252</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.7910622967557</v>
+        <v>716.7910622965964</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.518949161474</v>
+        <v>1005.518949161192</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.402806203999769</v>
+        <v>1.402806203999687</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993653520370164</v>
+        <v>0.9993653520370277</v>
       </c>
       <c r="LO3" t="n">
-        <v>328.4889879154949</v>
+        <v>328.4889879126976</v>
       </c>
       <c r="LP3" t="n">
-        <v>135190.7702256715</v>
+        <v>135190.7702103218</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.396954676201033e-06</v>
+        <v>7.39695467704089e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>96371.66548038286</v>
+        <v>96371.66546944637</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.037649391047991e-05</v>
+        <v>1.037649391165746e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003740274706239069</v>
+        <v>0.0037402747063018</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.697436497341302e-05</v>
+        <v>1.697436497318127e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02398732772727671</v>
+        <v>0.02398732772692185</v>
       </c>
       <c r="LW3" t="n">
-        <v>96432.56309046103</v>
+        <v>96432.56307951662</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.252868274917227</v>
+        <v>1.252868274796313</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.252868274917227</v>
+        <v>1.252868274796313</v>
       </c>
       <c r="LZ3" t="n">
-        <v>317464.8294999888</v>
+        <v>317464.8294967421</v>
       </c>
       <c r="MA3" t="n">
-        <v>394434.2643728066</v>
+        <v>394434.2643682526</v>
       </c>
       <c r="MB3" t="n">
-        <v>3788.663779681984</v>
+        <v>3788.66377969757</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.7910622967557</v>
+        <v>716.7910622965964</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.518949161474</v>
+        <v>1005.518949161192</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.4889879154949</v>
+        <v>328.4889879126976</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993653520370164</v>
+        <v>0.9993653520370277</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.697436497341302e-05</v>
+        <v>1.697436497318127e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02398732772727671</v>
+        <v>0.02398732772692185</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8440569532635663</v>
+        <v>0.8440569533525977</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4318584616009258</v>
+        <v>0.4318584616574167</v>
       </c>
       <c r="MK3" t="n">
-        <v>251782.2368050407</v>
+        <v>251782.2368098007</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.748629349877391</v>
+        <v>2.748629349547309</v>
       </c>
       <c r="MM3" t="n">
-        <v>380771.6904075863</v>
+        <v>380771.6904030322</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>165.5221906912167</v>
+        <v>165.5221939215142</v>
       </c>
       <c r="MP3" t="n">
-        <v>139.8272864325695</v>
+        <v>139.8272882109763</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-88.57722946741822</v>
+        <v>-88.57723269642099</v>
       </c>
       <c r="MR3" t="n">
-        <v>-32.35327702073631</v>
+        <v>-32.35327763552032</v>
       </c>
       <c r="MS3" t="n">
-        <v>289.8395116226505</v>
+        <v>289.8395153090023</v>
       </c>
       <c r="MT3" t="n">
-        <v>139.8272864325695</v>
+        <v>139.8272882109763</v>
       </c>
       <c r="MU3" t="n">
-        <v>-253.8804294674182</v>
+        <v>-253.880432696421</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>226.358424485183</v>
+        <v>226.3584234131515</v>
       </c>
       <c r="MX3" t="n">
-        <v>50679.21679530053</v>
+        <v>50679.21590584988</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7805498252794804</v>
+        <v>0.7805498152781198</v>
       </c>
       <c r="MZ3" t="n">
-        <v>287503.2059872663</v>
+        <v>287503.2052217476</v>
       </c>
       <c r="NA3" t="n">
-        <v>352430.7931238781</v>
+        <v>352430.792050773</v>
       </c>
       <c r="NB3" t="n">
-        <v>3802.968978983568</v>
+        <v>3802.968979276965</v>
       </c>
       <c r="NC3" t="n">
-        <v>-508403.2733248672</v>
+        <v>-508403.2703874827</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8708609890062</v>
+        <v>715.8708609744396</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.244466130203</v>
+        <v>1004.244466107498</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402829086719351</v>
+        <v>1.402829086716179</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992550947774546</v>
+        <v>0.999255094776072</v>
       </c>
       <c r="NH3" t="n">
-        <v>301.6861741255125</v>
+        <v>301.686173410357</v>
       </c>
       <c r="NI3" t="n">
-        <v>71041.38927272455</v>
+        <v>71041.38802564405</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.407630129755834e-05</v>
+        <v>1.407630154465769e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>50641.51431223997</v>
+        <v>50641.51342337912</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.974664489364019e-05</v>
+        <v>1.974664524023369e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004431251461386809</v>
+        <v>0.004431251482316858</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.477914116701042e-05</v>
+        <v>1.477914110903165e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.0206551175050493</v>
+        <v>0.02065511741766706</v>
       </c>
       <c r="NP3" t="n">
-        <v>50679.21679530053</v>
+        <v>50679.21590584988</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7805498252794804</v>
+        <v>0.7805498152781198</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7805498252794804</v>
+        <v>0.7805498152781198</v>
       </c>
       <c r="NS3" t="n">
-        <v>287503.2059872663</v>
+        <v>287503.2052217476</v>
       </c>
       <c r="NT3" t="n">
-        <v>352430.7931238781</v>
+        <v>352430.792050773</v>
       </c>
       <c r="NU3" t="n">
-        <v>3802.968978983568</v>
+        <v>3802.968979276965</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8708609890062</v>
+        <v>715.8708609744396</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.244466130203</v>
+        <v>1004.244466107498</v>
       </c>
       <c r="NX3" t="n">
-        <v>301.6861741255125</v>
+        <v>301.686173410357</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992550947774546</v>
+        <v>0.999255094776072</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.477914116701042e-05</v>
+        <v>1.477914110903165e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.0206551175050493</v>
+        <v>0.02065511741766706</v>
       </c>
       <c r="OB3" t="n">
-        <v>240.0397810212126</v>
+        <v>240.0397804836098</v>
       </c>
       <c r="OC3" t="n">
-        <v>62200.81067144463</v>
+        <v>62200.81012170296</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9033702455857877</v>
+        <v>0.9033702396256058</v>
       </c>
       <c r="OE3" t="n">
-        <v>297275.4184841676</v>
+        <v>297275.4181003142</v>
       </c>
       <c r="OF3" t="n">
-        <v>366129.5909293876</v>
+        <v>366129.5903912694</v>
       </c>
       <c r="OG3" t="n">
-        <v>3802.968978978626</v>
+        <v>3802.968979272023</v>
       </c>
       <c r="OH3" t="n">
-        <v>-546734.2500151062</v>
+        <v>-546734.2485791647</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.0856861291209</v>
+        <v>716.0856861190407</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.546741564874</v>
+        <v>1004.546741549884</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402830360979649</v>
+        <v>1.402830360978462</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9992883192012959</v>
+        <v>0.9992883192004793</v>
       </c>
       <c r="OM3" t="n">
-        <v>310.6800964494223</v>
+        <v>310.6800961011273</v>
       </c>
       <c r="ON3" t="n">
-        <v>87195.21335355303</v>
+        <v>87195.2125827593</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.146851944664979e-05</v>
+        <v>1.146851954802993e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>62156.63402997732</v>
+        <v>62156.63348057379</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.608838727524584e-05</v>
+        <v>1.608838741745137e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.004179180512388858</v>
+        <v>0.004179180521716613</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.551078497108657e-05</v>
+        <v>1.551078494264218e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.021760292635596</v>
+        <v>0.02176029259251847</v>
       </c>
       <c r="OU3" t="n">
-        <v>62200.81067144463</v>
+        <v>62200.81012170296</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9033702455857877</v>
+        <v>0.9033702396256058</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.9033702455857877</v>
+        <v>0.9033702396256058</v>
       </c>
       <c r="OX3" t="n">
-        <v>297275.4184841676</v>
+        <v>297275.4181003142</v>
       </c>
       <c r="OY3" t="n">
-        <v>366129.5909293876</v>
+        <v>366129.5903912694</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3802.968978978626</v>
+        <v>3802.968979272023</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.0856861291209</v>
+        <v>716.0856861190407</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.546741564874</v>
+        <v>1004.546741549884</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.6800964494223</v>
+        <v>310.6800961011273</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9992883192012959</v>
+        <v>0.9992883192004793</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.551078497108657e-05</v>
+        <v>1.551078494264218e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.021760292635596</v>
+        <v>0.02176029259251847</v>
       </c>
       <c r="PG3" t="n">
-        <v>268.2973288915612</v>
+        <v>268.2973288867514</v>
       </c>
       <c r="PH3" t="n">
-        <v>91741.76123654816</v>
+        <v>91741.7611372922</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.191946948429695</v>
+        <v>1.191946947160785</v>
       </c>
       <c r="PJ3" t="n">
-        <v>317466.2740126556</v>
+        <v>317466.2740094358</v>
       </c>
       <c r="PK3" t="n">
-        <v>394434.2643728065</v>
+        <v>394434.2643682524</v>
       </c>
       <c r="PL3" t="n">
-        <v>3802.968978972915</v>
+        <v>3802.968979266313</v>
       </c>
       <c r="PM3" t="n">
-        <v>-625892.1545430942</v>
+        <v>-625892.1546080749</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.7755537931746</v>
+        <v>716.7755537927222</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.421845616153</v>
+        <v>1005.421845614038</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.402701083059352</v>
+        <v>1.402701083057287</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9993959110406136</v>
+        <v>0.9993959110412035</v>
       </c>
       <c r="PR3" t="n">
-        <v>328.4785706760595</v>
+        <v>328.4785706730663</v>
       </c>
       <c r="PS3" t="n">
-        <v>128608.8961334919</v>
+        <v>128608.895994235</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.775511881868826e-06</v>
+        <v>7.775511890288103e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>91686.60214690237</v>
+        <v>91686.60204775968</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.090671893803827e-05</v>
+        <v>1.090671894983193e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003739816907566859</v>
+        <v>0.003739816907620935</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.697298318966623e-05</v>
+        <v>1.697298318940842e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.02398464274847676</v>
+        <v>0.02398464274807128</v>
       </c>
       <c r="PZ3" t="n">
-        <v>91741.76123654816</v>
+        <v>91741.7611372922</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.191946948429695</v>
+        <v>1.191946947160785</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.191946948429695</v>
+        <v>1.191946947160785</v>
       </c>
       <c r="QC3" t="n">
-        <v>317466.2740126556</v>
+        <v>317466.2740094358</v>
       </c>
       <c r="QD3" t="n">
-        <v>394434.2643728065</v>
+        <v>394434.2643682524</v>
       </c>
       <c r="QE3" t="n">
-        <v>3802.968978972915</v>
+        <v>3802.968979266313</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.7755537931746</v>
+        <v>716.7755537927222</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.421845616153</v>
+        <v>1005.421845614038</v>
       </c>
       <c r="QH3" t="n">
-        <v>328.4785706760595</v>
+        <v>328.4785706730663</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993959110406136</v>
+        <v>0.9993959110412035</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.697298318966623e-05</v>
+        <v>1.697298318940842e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.02398464274847676</v>
+        <v>0.02398464274807128</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.02457225874547209</v>
+        <v>0.02457225869962622</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.002612288202396018</v>
+        <v>0.002612288234915592</v>
       </c>
       <c r="QN3" t="n">
-        <v>0.01187896609867858</v>
+        <v>0.01187896609825505</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.03214632318790574</v>
+        <v>0.03214632319167609</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04300932498673876</v>
+        <v>0.04300932499281469</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.1142191612211912</v>
+        <v>0.1142191612172876</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.637673054183386e-05</v>
+        <v>1.637668679227433e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5486568656021783</v>
+        <v>0.5486568776102611</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9607318348704527</v>
+        <v>0.960731849367055</v>
       </c>
       <c r="QU3" t="n">
-        <v>398917.8172294204</v>
+        <v>398917.8187566312</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.748610139592288</v>
+        <v>2.74861013933219</v>
       </c>
       <c r="QW3" t="n">
-        <v>380771.6904075863</v>
+        <v>380771.6904030322</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>2819.854616645433</v>
+        <v>2819.854615610326</v>
       </c>
       <c r="QZ3" t="n">
-        <v>6.469776254562653</v>
+        <v>6.469776307177327</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.008972184717570723</v>
+        <v>0.008972184742318779</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.0007909141589541832</v>
+        <v>0.0007909141711080536</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.01168977094027339</v>
+        <v>0.01168977096083212</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01556565735455865</v>
+        <v>0.01556565737128956</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004335971813788169</v>
+        <v>0.004335971814690777</v>
       </c>
     </row>
   </sheetData>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091082200178581</v>
+        <v>0.4091082200144867</v>
       </c>
     </row>
     <row r="3">
@@ -11138,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4293639133878069</v>
+        <v>0.4293639122109717</v>
       </c>
     </row>
   </sheetData>
@@ -11928,7 +11928,7 @@
         <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>4.223294938868327e-08</v>
+        <v>4.29206558309335e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11959,7 +11959,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>5.85479758099083e-09</v>
+        <v>6.190936407187162e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
